--- a/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-12180" windowWidth="37340" windowHeight="23540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
   <si>
     <t>Source</t>
   </si>
@@ -421,6 +421,21 @@
       <t>electricity</t>
     </r>
   </si>
+  <si>
+    <t>https://www.wholesalesolar.com/cms/crown-6crv390-agm-battery-manual-3306454493.pdf</t>
+  </si>
+  <si>
+    <t>For the  Crown 6CRV220, 220Ah 6V Battery no storage decay information is available. So, Storage decay data of our previously used battery is used</t>
+  </si>
+  <si>
+    <t># batteries</t>
+  </si>
+  <si>
+    <t>Total storage volume</t>
+  </si>
+  <si>
+    <t>Storage volume / battery</t>
+  </si>
 </sst>
 </file>
 
@@ -433,12 +448,26 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -909,591 +938,598 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1670,6 +1706,8 @@
     <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1763,6 +1801,8 @@
     <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1846,13 +1886,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3175000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1883,19 +1923,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3341461</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>3249271</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1908,45 +1948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="990600"/>
-          <a:ext cx="6706961" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3515971</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5994400" y="10096500"/>
+          <a:off x="5727700" y="17437100"/>
           <a:ext cx="6678271" cy="3136900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1960,7 +1962,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3416300" cy="1785104"/>
@@ -2055,6 +2057,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>850899</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3188426</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918199" y="10261600"/>
+          <a:ext cx="6426927" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2120900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5969000" y="849040"/>
+          <a:ext cx="5308600" cy="2516460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2705,7 +2783,9 @@
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2729,28 +2809,28 @@
       <c r="G1" s="84"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:11" ht="16" customHeight="1">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
     </row>
@@ -2823,7 +2903,7 @@
       </c>
       <c r="E10" s="144">
         <f>'Research data'!G6</f>
-        <v>9.5999999999999992E-3</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
@@ -2842,7 +2922,7 @@
       </c>
       <c r="E11" s="145">
         <f>'Research data'!G7</f>
-        <v>4.9315068493150685E-8</v>
+        <v>5.4246575342465753E-8</v>
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
@@ -2853,7 +2933,7 @@
     </row>
     <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="150" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="110" t="s">
@@ -3141,7 +3221,7 @@
       </c>
       <c r="E28" s="111">
         <f>'Research data'!G13</f>
-        <v>6178.9000000000005</v>
+        <v>7147.59</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
@@ -3533,7 +3613,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3628,7 +3708,7 @@
       </c>
       <c r="G6" s="70">
         <f>Notes!E11/1000000</f>
-        <v>9.5999999999999992E-3</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
@@ -3649,8 +3729,8 @@
         <v>44</v>
       </c>
       <c r="G7" s="140">
-        <f>Notes!E65/1000000</f>
-        <v>4.9315068493150685E-8</v>
+        <f>Notes!E84/1000000</f>
+        <v>5.4246575342465753E-8</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3671,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="139">
-        <f>Notes!E32/1000000</f>
+        <f>Notes!E40/1000000</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H8" s="47"/>
@@ -3693,7 +3773,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="141">
-        <f>Notes!E24/1000000</f>
+        <f>Notes!E32/1000000</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H9" s="47"/>
@@ -3715,7 +3795,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="143">
-        <f>Notes!E30</f>
+        <f>Notes!E38</f>
         <v>0.85</v>
       </c>
       <c r="H10" s="47"/>
@@ -3763,7 +3843,7 @@
       </c>
       <c r="G13" s="51">
         <f>Notes!E8</f>
-        <v>6178.9000000000005</v>
+        <v>7147.59</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3923,10 +4003,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="B2:K177"/>
+  <dimension ref="B2:K166"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4026,8 +4106,8 @@
         <v>88</v>
       </c>
       <c r="E8" s="130">
-        <f>6790*E9</f>
-        <v>6178.9000000000005</v>
+        <f>(6428+1603)*E9</f>
+        <v>7147.59</v>
       </c>
       <c r="F8" s="130" t="s">
         <v>89</v>
@@ -4045,7 +4125,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="130">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F9" s="130" t="s">
         <v>91</v>
@@ -4075,7 +4155,8 @@
         <v>92</v>
       </c>
       <c r="E11" s="130">
-        <v>9600</v>
+        <f>E68</f>
+        <v>19800</v>
       </c>
       <c r="F11" s="130" t="s">
         <v>93</v>
@@ -4089,9 +4170,9 @@
     <row r="12" spans="2:11">
       <c r="B12" s="15"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="13"/>
       <c r="H12" s="129"/>
       <c r="I12" s="13"/>
@@ -4101,9 +4182,9 @@
     <row r="13" spans="2:11">
       <c r="B13" s="15"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="13"/>
       <c r="H13" s="129"/>
       <c r="I13" s="13"/>
@@ -4111,39 +4192,35 @@
       <c r="K13" s="77"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="132"/>
-      <c r="C14" s="130" t="s">
-        <v>86</v>
-      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="130"/>
       <c r="E14" s="130"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="13"/>
       <c r="H14" s="129"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="131"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="15"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="13"/>
       <c r="H15" s="129"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="131" t="s">
-        <v>94</v>
-      </c>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="13"/>
       <c r="H16" s="129"/>
       <c r="I16" s="13"/>
@@ -4153,9 +4230,9 @@
     <row r="17" spans="2:11">
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="13"/>
       <c r="H17" s="129"/>
       <c r="I17" s="13"/>
@@ -4165,9 +4242,9 @@
     <row r="18" spans="2:11">
       <c r="B18" s="15"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="13"/>
       <c r="H18" s="129"/>
       <c r="I18" s="13"/>
@@ -4177,9 +4254,9 @@
     <row r="19" spans="2:11">
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="13"/>
       <c r="H19" s="129"/>
       <c r="I19" s="13"/>
@@ -4211,16 +4288,18 @@
       <c r="K21" s="77"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="129"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="77"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="15"/>
@@ -4232,20 +4311,16 @@
       <c r="H23" s="129"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="77"/>
+      <c r="K23" s="153" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="130">
-        <v>4400</v>
-      </c>
-      <c r="F24" s="130" t="s">
-        <v>96</v>
-      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="129"/>
       <c r="I24" s="13"/>
@@ -4315,12 +4390,8 @@
     <row r="30" spans="2:11">
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="130">
-        <v>0.85</v>
-      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="129"/>
@@ -4331,9 +4402,8 @@
     <row r="31" spans="2:11">
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="149" t="s">
-        <v>119</v>
-      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="129"/>
@@ -4345,10 +4415,9 @@
       <c r="B32" s="15"/>
       <c r="C32" s="13"/>
       <c r="D32" s="130" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="130">
-        <f>E24</f>
         <v>4400</v>
       </c>
       <c r="F32" s="130" t="s">
@@ -4363,9 +4432,7 @@
     <row r="33" spans="2:11">
       <c r="B33" s="15"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="149" t="s">
-        <v>118</v>
-      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -4425,8 +4492,12 @@
     <row r="38" spans="2:11">
       <c r="B38" s="15"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="130">
+        <v>0.85</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="129"/>
@@ -4437,8 +4508,9 @@
     <row r="39" spans="2:11">
       <c r="B39" s="15"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="149" t="s">
+        <v>119</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="129"/>
@@ -4449,9 +4521,16 @@
     <row r="40" spans="2:11">
       <c r="B40" s="15"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="D40" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="130">
+        <f>E32</f>
+        <v>4400</v>
+      </c>
+      <c r="F40" s="130" t="s">
+        <v>96</v>
+      </c>
       <c r="G40" s="13"/>
       <c r="H40" s="129"/>
       <c r="I40" s="13"/>
@@ -4461,9 +4540,11 @@
     <row r="41" spans="2:11">
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="130"/>
+      <c r="D41" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="129"/>
       <c r="I41" s="13"/>
@@ -4483,90 +4564,100 @@
       <c r="K42" s="77"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="132"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="131"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="77"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="132"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="131"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="77"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="132"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="131"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="77"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="132"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="131"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="77"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="132"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="131"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="77"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="132"/>
-      <c r="C48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="131"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="77"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="132"/>
-      <c r="C49" s="130"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
+      <c r="E49" s="133"/>
       <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="131"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="77"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="132"/>
-      <c r="C50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="131"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="77"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="132"/>
@@ -4582,10 +4673,6 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="132"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
       <c r="G52" s="130"/>
       <c r="H52" s="133"/>
       <c r="I52" s="130"/>
@@ -4606,9 +4693,7 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="132"/>
-      <c r="C54" s="130" t="s">
-        <v>86</v>
-      </c>
+      <c r="C54" s="130"/>
       <c r="D54" s="130"/>
       <c r="E54" s="130"/>
       <c r="F54" s="130"/>
@@ -4616,16 +4701,14 @@
       <c r="H54" s="133"/>
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
-      <c r="K54" s="131" t="s">
-        <v>98</v>
-      </c>
+      <c r="K54" s="131"/>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="132"/>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="134"/>
       <c r="G55" s="130"/>
       <c r="H55" s="133"/>
       <c r="I55" s="130"/>
@@ -4635,15 +4718,6 @@
     <row r="56" spans="2:11">
       <c r="B56" s="132"/>
       <c r="C56" s="130"/>
-      <c r="D56" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="130">
-        <v>6</v>
-      </c>
-      <c r="F56" s="130" t="s">
-        <v>100</v>
-      </c>
       <c r="G56" s="130"/>
       <c r="H56" s="133"/>
       <c r="I56" s="130"/>
@@ -4653,15 +4727,9 @@
     <row r="57" spans="2:11">
       <c r="B57" s="132"/>
       <c r="C57" s="130"/>
-      <c r="D57" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="130">
-        <v>200</v>
-      </c>
-      <c r="F57" s="130" t="s">
-        <v>102</v>
-      </c>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="130"/>
       <c r="H57" s="133"/>
       <c r="I57" s="130"/>
@@ -4671,16 +4739,6 @@
     <row r="58" spans="2:11">
       <c r="B58" s="132"/>
       <c r="C58" s="130"/>
-      <c r="D58" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="130">
-        <f>E56*E57</f>
-        <v>1200</v>
-      </c>
-      <c r="F58" s="130" t="s">
-        <v>93</v>
-      </c>
       <c r="G58" s="130"/>
       <c r="H58" s="133"/>
       <c r="I58" s="130"/>
@@ -4725,47 +4783,43 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="132"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="130">
-        <f>(1-0.64)*E58</f>
-        <v>432</v>
-      </c>
-      <c r="F62" s="148" t="s">
-        <v>93</v>
-      </c>
+      <c r="C62" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
       <c r="G62" s="130"/>
       <c r="H62" s="133"/>
       <c r="I62" s="130"/>
       <c r="J62" s="130"/>
-      <c r="K62" s="131"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="132"/>
       <c r="C63" s="130"/>
-      <c r="D63" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="130">
-        <v>8760</v>
-      </c>
-      <c r="F63" s="148" t="s">
-        <v>105</v>
-      </c>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
       <c r="G63" s="130"/>
       <c r="H63" s="133"/>
       <c r="I63" s="130"/>
       <c r="J63" s="130"/>
-      <c r="K63" s="131"/>
+      <c r="K63" s="131" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="132"/>
       <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
+      <c r="D64" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="130">
+        <v>6</v>
+      </c>
+      <c r="F64" s="130" t="s">
+        <v>100</v>
+      </c>
       <c r="G64" s="130"/>
       <c r="H64" s="133"/>
       <c r="I64" s="130"/>
@@ -4776,29 +4830,33 @@
       <c r="B65" s="132"/>
       <c r="C65" s="130"/>
       <c r="D65" s="130" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E65" s="130">
-        <f>E62/E63</f>
-        <v>4.9315068493150684E-2</v>
+        <v>220</v>
       </c>
       <c r="F65" s="130" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G65" s="130"/>
       <c r="H65" s="133"/>
       <c r="I65" s="130"/>
       <c r="J65" s="130"/>
-      <c r="K65" s="149" t="s">
-        <v>120</v>
-      </c>
+      <c r="K65" s="131"/>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="132"/>
       <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
+      <c r="D66" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="130">
+        <f>E64*E65</f>
+        <v>1320</v>
+      </c>
+      <c r="F66" s="130" t="s">
+        <v>93</v>
+      </c>
       <c r="G66" s="130"/>
       <c r="H66" s="133"/>
       <c r="I66" s="130"/>
@@ -4808,8 +4866,12 @@
     <row r="67" spans="2:11">
       <c r="B67" s="132"/>
       <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
+      <c r="D67" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="130">
+        <v>15</v>
+      </c>
       <c r="F67" s="130"/>
       <c r="G67" s="130"/>
       <c r="H67" s="133"/>
@@ -4820,9 +4882,16 @@
     <row r="68" spans="2:11">
       <c r="B68" s="132"/>
       <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
+      <c r="D68" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="130">
+        <f>E66*E67</f>
+        <v>19800</v>
+      </c>
+      <c r="F68" s="152" t="s">
+        <v>93</v>
+      </c>
       <c r="G68" s="130"/>
       <c r="H68" s="133"/>
       <c r="I68" s="130"/>
@@ -4832,9 +4901,6 @@
     <row r="69" spans="2:11">
       <c r="B69" s="132"/>
       <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
       <c r="G69" s="130"/>
       <c r="H69" s="133"/>
       <c r="I69" s="130"/>
@@ -4844,9 +4910,6 @@
     <row r="70" spans="2:11">
       <c r="B70" s="132"/>
       <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
       <c r="G70" s="130"/>
       <c r="H70" s="133"/>
       <c r="I70" s="130"/>
@@ -4856,9 +4919,6 @@
     <row r="71" spans="2:11">
       <c r="B71" s="132"/>
       <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
       <c r="G71" s="130"/>
       <c r="H71" s="133"/>
       <c r="I71" s="130"/>
@@ -4868,9 +4928,6 @@
     <row r="72" spans="2:11">
       <c r="B72" s="132"/>
       <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
       <c r="G72" s="130"/>
       <c r="H72" s="133"/>
       <c r="I72" s="130"/>
@@ -4880,20 +4937,19 @@
     <row r="73" spans="2:11">
       <c r="B73" s="132"/>
       <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="130"/>
       <c r="G73" s="130"/>
       <c r="H73" s="133"/>
       <c r="I73" s="130"/>
       <c r="J73" s="130"/>
-      <c r="K73" s="131"/>
+      <c r="K73" s="149" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="132"/>
       <c r="C74" s="130"/>
       <c r="D74" s="130"/>
-      <c r="E74" s="134"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="130"/>
       <c r="G74" s="130"/>
       <c r="H74" s="133"/>
@@ -4940,9 +4996,6 @@
     <row r="78" spans="2:11">
       <c r="B78" s="132"/>
       <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
       <c r="G78" s="130"/>
       <c r="H78" s="133"/>
       <c r="I78" s="130"/>
@@ -4952,9 +5005,6 @@
     <row r="79" spans="2:11">
       <c r="B79" s="132"/>
       <c r="C79" s="130"/>
-      <c r="D79" s="130"/>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
       <c r="G79" s="130"/>
       <c r="H79" s="133"/>
       <c r="I79" s="130"/>
@@ -4963,10 +5013,12 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="132"/>
-      <c r="C80" s="130"/>
-      <c r="D80" s="130"/>
-      <c r="E80" s="130"/>
-      <c r="F80" s="130"/>
+      <c r="C80" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="151" t="s">
+        <v>123</v>
+      </c>
       <c r="G80" s="130"/>
       <c r="H80" s="133"/>
       <c r="I80" s="130"/>
@@ -4976,21 +5028,36 @@
     <row r="81" spans="2:11">
       <c r="B81" s="132"/>
       <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
+      <c r="D81" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="130">
+        <f>(1-0.64)*E66</f>
+        <v>475.2</v>
+      </c>
+      <c r="F81" s="148" t="s">
+        <v>93</v>
+      </c>
       <c r="G81" s="130"/>
       <c r="H81" s="133"/>
       <c r="I81" s="130"/>
       <c r="J81" s="130"/>
-      <c r="K81" s="131"/>
+      <c r="K81" s="131" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="132"/>
       <c r="C82" s="130"/>
-      <c r="D82" s="130"/>
-      <c r="E82" s="130"/>
-      <c r="F82" s="130"/>
+      <c r="D82" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="130">
+        <v>8760</v>
+      </c>
+      <c r="F82" s="148" t="s">
+        <v>105</v>
+      </c>
       <c r="G82" s="130"/>
       <c r="H82" s="133"/>
       <c r="I82" s="130"/>
@@ -5012,9 +5079,16 @@
     <row r="84" spans="2:11">
       <c r="B84" s="132"/>
       <c r="C84" s="130"/>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
-      <c r="F84" s="130"/>
+      <c r="D84" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="130">
+        <f>E81/E82</f>
+        <v>5.4246575342465755E-2</v>
+      </c>
+      <c r="F84" s="130" t="s">
+        <v>96</v>
+      </c>
       <c r="G84" s="130"/>
       <c r="H84" s="133"/>
       <c r="I84" s="130"/>
@@ -6005,138 +6079,6 @@
       <c r="J166" s="130"/>
       <c r="K166" s="131"/>
     </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="132"/>
-      <c r="C167" s="130"/>
-      <c r="D167" s="130"/>
-      <c r="E167" s="130"/>
-      <c r="F167" s="130"/>
-      <c r="G167" s="130"/>
-      <c r="H167" s="133"/>
-      <c r="I167" s="130"/>
-      <c r="J167" s="130"/>
-      <c r="K167" s="131"/>
-    </row>
-    <row r="168" spans="2:11">
-      <c r="B168" s="132"/>
-      <c r="C168" s="130"/>
-      <c r="D168" s="130"/>
-      <c r="E168" s="130"/>
-      <c r="F168" s="130"/>
-      <c r="G168" s="130"/>
-      <c r="H168" s="133"/>
-      <c r="I168" s="130"/>
-      <c r="J168" s="130"/>
-      <c r="K168" s="131"/>
-    </row>
-    <row r="169" spans="2:11">
-      <c r="B169" s="132"/>
-      <c r="C169" s="130"/>
-      <c r="D169" s="130"/>
-      <c r="E169" s="130"/>
-      <c r="F169" s="130"/>
-      <c r="G169" s="130"/>
-      <c r="H169" s="133"/>
-      <c r="I169" s="130"/>
-      <c r="J169" s="130"/>
-      <c r="K169" s="131"/>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="132"/>
-      <c r="C170" s="130"/>
-      <c r="D170" s="130"/>
-      <c r="E170" s="130"/>
-      <c r="F170" s="130"/>
-      <c r="G170" s="130"/>
-      <c r="H170" s="133"/>
-      <c r="I170" s="130"/>
-      <c r="J170" s="130"/>
-      <c r="K170" s="131"/>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="132"/>
-      <c r="C171" s="130"/>
-      <c r="D171" s="130"/>
-      <c r="E171" s="130"/>
-      <c r="F171" s="130"/>
-      <c r="G171" s="130"/>
-      <c r="H171" s="133"/>
-      <c r="I171" s="130"/>
-      <c r="J171" s="130"/>
-      <c r="K171" s="131"/>
-    </row>
-    <row r="172" spans="2:11">
-      <c r="B172" s="132"/>
-      <c r="C172" s="130"/>
-      <c r="D172" s="130"/>
-      <c r="E172" s="130"/>
-      <c r="F172" s="130"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="133"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="130"/>
-      <c r="K172" s="131"/>
-    </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="132"/>
-      <c r="C173" s="130"/>
-      <c r="D173" s="130"/>
-      <c r="E173" s="130"/>
-      <c r="F173" s="130"/>
-      <c r="G173" s="130"/>
-      <c r="H173" s="133"/>
-      <c r="I173" s="130"/>
-      <c r="J173" s="130"/>
-      <c r="K173" s="131"/>
-    </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="132"/>
-      <c r="C174" s="130"/>
-      <c r="D174" s="130"/>
-      <c r="E174" s="130"/>
-      <c r="F174" s="130"/>
-      <c r="G174" s="130"/>
-      <c r="H174" s="133"/>
-      <c r="I174" s="130"/>
-      <c r="J174" s="130"/>
-      <c r="K174" s="131"/>
-    </row>
-    <row r="175" spans="2:11">
-      <c r="B175" s="132"/>
-      <c r="C175" s="130"/>
-      <c r="D175" s="130"/>
-      <c r="E175" s="130"/>
-      <c r="F175" s="130"/>
-      <c r="G175" s="130"/>
-      <c r="H175" s="133"/>
-      <c r="I175" s="130"/>
-      <c r="J175" s="130"/>
-      <c r="K175" s="131"/>
-    </row>
-    <row r="176" spans="2:11">
-      <c r="B176" s="132"/>
-      <c r="C176" s="130"/>
-      <c r="D176" s="130"/>
-      <c r="E176" s="130"/>
-      <c r="F176" s="130"/>
-      <c r="G176" s="130"/>
-      <c r="H176" s="133"/>
-      <c r="I176" s="130"/>
-      <c r="J176" s="130"/>
-      <c r="K176" s="131"/>
-    </row>
-    <row r="177" spans="2:11">
-      <c r="B177" s="132"/>
-      <c r="C177" s="130"/>
-      <c r="D177" s="130"/>
-      <c r="E177" s="130"/>
-      <c r="F177" s="130"/>
-      <c r="G177" s="130"/>
-      <c r="H177" s="133"/>
-      <c r="I177" s="130"/>
-      <c r="J177" s="130"/>
-      <c r="K177" s="131"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-12180" windowWidth="37340" windowHeight="23540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -240,9 +248,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -436,6 +441,10 @@
   <si>
     <t>Storage volume / battery</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +457,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,11 +603,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1254,19 +1258,19 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1303,7 +1307,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1360,10 +1364,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,7 +1379,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,8 +1464,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1490,7 +1494,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1501,31 +1505,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1807,80 +1811,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2137,7 +2076,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2578,51 +2517,51 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="14"/>
+    <col min="1" max="1" width="3.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1">
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2631,17 +2570,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>51</v>
@@ -2649,13 +2588,13 @@
       <c r="C9" s="53"/>
       <c r="D9" s="71"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="72"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="54" t="s">
         <v>52</v>
@@ -2665,7 +2604,7 @@
       </c>
       <c r="D11" s="72"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="54"/>
       <c r="C12" s="13" t="s">
@@ -2673,7 +2612,7 @@
       </c>
       <c r="D12" s="72"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="54"/>
       <c r="C13" s="57" t="s">
@@ -2681,7 +2620,7 @@
       </c>
       <c r="D13" s="72"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55" t="s">
@@ -2689,13 +2628,13 @@
       </c>
       <c r="D14" s="72"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
       <c r="D15" s="72"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="54" t="s">
         <v>57</v>
@@ -2705,7 +2644,7 @@
       </c>
       <c r="D16" s="72"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="54"/>
       <c r="C17" s="59" t="s">
@@ -2713,7 +2652,7 @@
       </c>
       <c r="D17" s="72"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="54"/>
       <c r="C18" s="60" t="s">
@@ -2721,7 +2660,7 @@
       </c>
       <c r="D18" s="72"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="54"/>
       <c r="C19" s="61" t="s">
@@ -2729,7 +2668,7 @@
       </c>
       <c r="D19" s="72"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
       <c r="C20" s="63" t="s">
@@ -2737,7 +2676,7 @@
       </c>
       <c r="D20" s="72"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64" t="s">
@@ -2745,7 +2684,7 @@
       </c>
       <c r="D21" s="72"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
       <c r="C22" s="65" t="s">
@@ -2753,14 +2692,14 @@
       </c>
       <c r="D22" s="72"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="C23" s="66" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="72"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="75"/>
@@ -2768,49 +2707,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="83" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="83" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="83" customWidth="1"/>
     <col min="3" max="3" width="46" style="83" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="83" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="83" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="83" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="83" customWidth="1"/>
     <col min="7" max="7" width="45" style="83" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="83" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="83"/>
+    <col min="8" max="8" width="5.140625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="83" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" customHeight="1">
+    <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
       <c r="F1" s="84"/>
       <c r="G1" s="84"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="154" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
@@ -2818,7 +2752,7 @@
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
     </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1">
+    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="157"/>
       <c r="C3" s="158"/>
       <c r="D3" s="158"/>
@@ -2826,7 +2760,7 @@
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
     </row>
-    <row r="4" spans="2:11" ht="16" customHeight="1">
+    <row r="4" spans="2:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
@@ -2834,10 +2768,10 @@
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="84"/>
     </row>
-    <row r="6" spans="2:11" ht="16" customHeight="1">
+    <row r="6" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
@@ -2848,7 +2782,7 @@
       <c r="I6" s="86"/>
       <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
         <v>21</v>
@@ -2869,7 +2803,7 @@
       </c>
       <c r="J7" s="91"/>
     </row>
-    <row r="8" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -2880,10 +2814,10 @@
       <c r="I8" s="94"/>
       <c r="J8" s="96"/>
     </row>
-    <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="94"/>
@@ -2893,13 +2827,13 @@
       <c r="I9" s="94"/>
       <c r="J9" s="96"/>
     </row>
-    <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="144">
         <f>'Research data'!G6</f>
@@ -2908,14 +2842,14 @@
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
       <c r="I10" s="146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="96"/>
     </row>
-    <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
       <c r="C11" s="106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>44</v>
@@ -2927,14 +2861,14 @@
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
       <c r="I11" s="146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" s="96"/>
     </row>
-    <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
       <c r="C12" s="150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>4</v>
@@ -2946,11 +2880,11 @@
       <c r="F12" s="108"/>
       <c r="G12" s="109"/>
       <c r="I12" s="146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="96"/>
     </row>
-    <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93"/>
       <c r="C13" s="106" t="s">
         <v>30</v>
@@ -2963,11 +2897,11 @@
       <c r="F13" s="108"/>
       <c r="G13" s="109"/>
       <c r="I13" s="146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="97"/>
       <c r="C14" s="108" t="s">
         <v>23</v>
@@ -2981,12 +2915,12 @@
       <c r="F14" s="108"/>
       <c r="G14" s="108"/>
       <c r="I14" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="98"/>
       <c r="K14" s="84"/>
     </row>
-    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="97"/>
       <c r="C15" s="108" t="s">
         <v>25</v>
@@ -3000,15 +2934,15 @@
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
       <c r="I15" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J15" s="98"/>
       <c r="K15" s="84"/>
     </row>
-    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="97"/>
       <c r="C16" s="112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>4</v>
@@ -3019,12 +2953,12 @@
       <c r="F16" s="108"/>
       <c r="G16" s="108"/>
       <c r="I16" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="84"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="97"/>
       <c r="C17" s="108" t="s">
         <v>7</v>
@@ -3038,12 +2972,12 @@
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
       <c r="I17" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J17" s="98"/>
       <c r="K17" s="84"/>
     </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="97"/>
       <c r="C18" s="108" t="s">
         <v>28</v>
@@ -3057,12 +2991,12 @@
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="I18" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="84"/>
     </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="97"/>
       <c r="C19" s="108" t="s">
         <v>29</v>
@@ -3076,12 +3010,12 @@
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
       <c r="I19" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="98"/>
       <c r="K19" s="84"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="97"/>
       <c r="C20" s="108" t="s">
         <v>31</v>
@@ -3095,11 +3029,11 @@
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
       <c r="I20" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="97"/>
       <c r="C21" s="115" t="s">
         <v>45</v>
@@ -3113,11 +3047,11 @@
       <c r="F21" s="108"/>
       <c r="G21" s="108"/>
       <c r="I21" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="97"/>
       <c r="C22" s="115" t="s">
         <v>46</v>
@@ -3131,11 +3065,11 @@
       <c r="F22" s="108"/>
       <c r="G22" s="108"/>
       <c r="I22" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="97"/>
       <c r="C23" s="115" t="s">
         <v>47</v>
@@ -3149,11 +3083,11 @@
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
       <c r="I23" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="97"/>
       <c r="C24" s="115" t="s">
         <v>48</v>
@@ -3167,11 +3101,11 @@
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
       <c r="I24" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="97"/>
       <c r="C25" s="115" t="s">
         <v>49</v>
@@ -3185,11 +3119,11 @@
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
       <c r="I25" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1">
+    <row r="26" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="97"/>
       <c r="C26" s="99"/>
       <c r="D26" s="100"/>
@@ -3199,10 +3133,10 @@
       <c r="I26" s="84"/>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="97"/>
       <c r="C27" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="101"/>
@@ -3211,7 +3145,7 @@
       <c r="I27" s="84"/>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="97"/>
       <c r="C28" s="108" t="s">
         <v>32</v>
@@ -3226,11 +3160,11 @@
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="I28" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
       <c r="C29" s="108" t="s">
         <v>33</v>
@@ -3244,11 +3178,11 @@
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
       <c r="I29" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="97"/>
       <c r="C30" s="108" t="s">
         <v>9</v>
@@ -3262,11 +3196,11 @@
       <c r="F30" s="108"/>
       <c r="G30" s="108"/>
       <c r="I30" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="97"/>
       <c r="C31" s="108" t="s">
         <v>34</v>
@@ -3280,11 +3214,11 @@
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
       <c r="I31" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="97"/>
       <c r="C32" s="108" t="s">
         <v>35</v>
@@ -3298,11 +3232,11 @@
       <c r="F32" s="108"/>
       <c r="G32" s="108"/>
       <c r="I32" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="97"/>
       <c r="C33" s="108" t="s">
         <v>36</v>
@@ -3316,11 +3250,11 @@
       <c r="F33" s="108"/>
       <c r="G33" s="108"/>
       <c r="I33" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="97"/>
       <c r="C34" s="108" t="s">
         <v>37</v>
@@ -3334,11 +3268,11 @@
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="I34" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="97"/>
       <c r="C35" s="108" t="s">
         <v>40</v>
@@ -3352,11 +3286,11 @@
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="I35" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="97"/>
       <c r="C36" s="108" t="s">
         <v>27</v>
@@ -3370,11 +3304,11 @@
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="I36" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1">
+    <row r="37" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="97"/>
       <c r="C37" s="84"/>
       <c r="D37" s="100"/>
@@ -3384,7 +3318,7 @@
       <c r="I37" s="84"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="97"/>
       <c r="C38" s="94" t="s">
         <v>6</v>
@@ -3396,7 +3330,7 @@
       <c r="I38" s="84"/>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="97"/>
       <c r="C39" s="108" t="s">
         <v>26</v>
@@ -3410,11 +3344,11 @@
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
       <c r="I39" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="97"/>
       <c r="C40" s="108" t="s">
         <v>38</v>
@@ -3428,11 +3362,11 @@
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
       <c r="I40" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="97"/>
       <c r="C41" s="108" t="s">
         <v>39</v>
@@ -3446,11 +3380,11 @@
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
       <c r="I41" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="97"/>
       <c r="C42" s="108" t="s">
         <v>24</v>
@@ -3464,14 +3398,14 @@
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
       <c r="I42" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="97"/>
       <c r="C43" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="110"/>
       <c r="E43" s="116">
@@ -3480,14 +3414,14 @@
       <c r="F43" s="108"/>
       <c r="G43" s="108"/>
       <c r="I43" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="97"/>
       <c r="C44" s="118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="110"/>
       <c r="E44" s="116">
@@ -3496,14 +3430,14 @@
       <c r="F44" s="108"/>
       <c r="G44" s="108"/>
       <c r="I44" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J44" s="98"/>
     </row>
-    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="97"/>
       <c r="C45" s="118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="110"/>
       <c r="E45" s="116">
@@ -3512,14 +3446,14 @@
       <c r="F45" s="108"/>
       <c r="G45" s="108"/>
       <c r="I45" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J45" s="98"/>
     </row>
-    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="97"/>
       <c r="C46" s="118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="110"/>
       <c r="E46" s="116">
@@ -3528,14 +3462,14 @@
       <c r="F46" s="108"/>
       <c r="G46" s="108"/>
       <c r="I46" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J46" s="98"/>
     </row>
-    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="97"/>
       <c r="C47" s="118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="110"/>
       <c r="E47" s="116">
@@ -3544,11 +3478,11 @@
       <c r="F47" s="108"/>
       <c r="G47" s="108"/>
       <c r="I47" s="147" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J47" s="98"/>
     </row>
-    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="103"/>
       <c r="C48" s="104"/>
       <c r="D48" s="104"/>
@@ -3565,43 +3499,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3616,25 +3513,24 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="38" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="38" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="38" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="38" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" customWidth="1"/>
     <col min="9" max="9" width="16" style="38" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
     <col min="11" max="11" width="60" style="38" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="10.625" style="38"/>
+    <col min="12" max="12" width="2.140625" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="40"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -3647,10 +3543,10 @@
       <c r="K2" s="41"/>
       <c r="L2" s="76"/>
     </row>
-    <row r="3" spans="2:12" s="16" customFormat="1">
+    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3664,11 +3560,11 @@
       <c r="I3" s="68"/>
       <c r="J3" s="36"/>
       <c r="K3" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="77"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3681,10 +3577,10 @@
       <c r="K4" s="9"/>
       <c r="L4" s="78"/>
     </row>
-    <row r="5" spans="2:12" ht="16" thickBot="1">
+    <row r="5" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3696,15 +3592,15 @@
       <c r="K5" s="37"/>
       <c r="L5" s="78"/>
     </row>
-    <row r="6" spans="2:12" ht="16" thickBot="1">
+    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="70">
         <f>Notes!E11/1000000</f>
@@ -3714,14 +3610,14 @@
       <c r="I6" s="47"/>
       <c r="J6" s="45"/>
       <c r="K6" s="142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="78"/>
     </row>
-    <row r="7" spans="2:12" ht="16" thickBot="1">
+    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -3736,14 +3632,14 @@
       <c r="I7" s="47"/>
       <c r="J7" s="45"/>
       <c r="K7" s="142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="78"/>
     </row>
-    <row r="8" spans="2:12" ht="16" thickBot="1">
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="137" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -3758,14 +3654,14 @@
       <c r="I8" s="47"/>
       <c r="J8" s="45"/>
       <c r="K8" s="142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="78"/>
     </row>
-    <row r="9" spans="2:12" ht="16" thickBot="1">
+    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -3780,14 +3676,14 @@
       <c r="I9" s="47"/>
       <c r="J9" s="45"/>
       <c r="K9" s="142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L9" s="78"/>
     </row>
-    <row r="10" spans="2:12" ht="16" thickBot="1">
+    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -3804,7 +3700,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="78"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -3816,10 +3712,10 @@
       <c r="J11" s="48"/>
       <c r="L11" s="78"/>
     </row>
-    <row r="12" spans="2:12" ht="16" thickBot="1">
+    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3831,15 +3727,15 @@
       <c r="K12" s="37"/>
       <c r="L12" s="78"/>
     </row>
-    <row r="13" spans="2:12" ht="16" thickBot="1">
+    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="137" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="51">
         <f>Notes!E8</f>
@@ -3851,7 +3747,7 @@
       <c r="K13" s="69"/>
       <c r="L13" s="78"/>
     </row>
-    <row r="14" spans="2:12" ht="16" thickBot="1">
+    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -3867,11 +3763,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3886,22 +3777,22 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="23" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="23" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="23" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="24" customWidth="1"/>
     <col min="11" max="11" width="66" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="23"/>
+    <col min="12" max="16384" width="33.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -3913,7 +3804,7 @@
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
         <v>18</v>
@@ -3927,7 +3818,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -3939,7 +3830,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
         <v>19</v>
@@ -3955,27 +3846,27 @@
         <v>20</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="135">
         <v>2016</v>
@@ -3984,17 +3875,12 @@
         <v>42397</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4009,23 +3895,23 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="119" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="119" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="119" customWidth="1"/>
-    <col min="5" max="6" width="8.375" style="119" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="119"/>
-    <col min="8" max="8" width="10.625" style="120"/>
-    <col min="9" max="9" width="10.625" style="119"/>
+    <col min="1" max="1" width="3.5703125" style="119" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="119" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="119" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="119" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="119" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="119"/>
+    <col min="8" max="8" width="10.7109375" style="120"/>
+    <col min="9" max="9" width="10.7109375" style="119"/>
     <col min="10" max="10" width="35" style="119" customWidth="1"/>
-    <col min="11" max="11" width="63.25" style="119" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="119"/>
+    <col min="11" max="11" width="63.28515625" style="119" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="119"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="16" thickBot="1"/>
-    <row r="3" spans="2:11">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="121"/>
       <c r="C3" s="122"/>
       <c r="D3" s="122"/>
@@ -4037,13 +3923,13 @@
       <c r="J3" s="122"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="125"/>
       <c r="C4" s="126" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="126" t="s">
         <v>5</v>
@@ -4056,10 +3942,10 @@
       <c r="I4" s="126"/>
       <c r="J4" s="126"/>
       <c r="K4" s="128" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4071,10 +3957,10 @@
       <c r="J5" s="13"/>
       <c r="K5" s="77"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4084,10 +3970,10 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="131" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4099,18 +3985,18 @@
       <c r="J7" s="13"/>
       <c r="K7" s="77"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="13"/>
       <c r="D8" s="130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="130">
         <f>(6428+1603)*E9</f>
         <v>7147.59</v>
       </c>
       <c r="F8" s="130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="129"/>
@@ -4118,17 +4004,17 @@
       <c r="J8" s="13"/>
       <c r="K8" s="77"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="13"/>
       <c r="D9" s="130" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="130">
         <v>0.89</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="129"/>
@@ -4136,7 +4022,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="77"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4148,18 +4034,18 @@
       <c r="J10" s="13"/>
       <c r="K10" s="77"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="C11" s="13"/>
       <c r="D11" s="130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="130">
         <f>E68</f>
         <v>19800</v>
       </c>
       <c r="F11" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="129"/>
@@ -4167,7 +4053,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="77"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="13"/>
       <c r="D12" s="130"/>
@@ -4179,7 +4065,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="77"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="13"/>
       <c r="D13" s="130"/>
@@ -4191,7 +4077,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="77"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="13"/>
       <c r="D14" s="130"/>
@@ -4203,7 +4089,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="77"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="13"/>
       <c r="D15" s="130"/>
@@ -4215,7 +4101,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="77"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="130"/>
@@ -4227,7 +4113,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="77"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="130"/>
@@ -4239,7 +4125,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="77"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="C18" s="13"/>
       <c r="D18" s="130"/>
@@ -4251,7 +4137,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="77"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="130"/>
@@ -4263,7 +4149,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="77"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -4275,7 +4161,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="77"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -4287,10 +4173,10 @@
       <c r="J21" s="13"/>
       <c r="K21" s="77"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="132"/>
       <c r="C22" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="130"/>
       <c r="E22" s="130"/>
@@ -4301,7 +4187,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="131"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -4312,10 +4198,10 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="153" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4327,7 +4213,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="77"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -4339,7 +4225,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="77"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -4351,7 +4237,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="77"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -4363,7 +4249,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="77"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -4375,7 +4261,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="77"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -4387,7 +4273,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="77"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -4399,7 +4285,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="77"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -4411,17 +4297,17 @@
       <c r="J31" s="13"/>
       <c r="K31" s="77"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="13"/>
       <c r="D32" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="130">
         <v>4400</v>
       </c>
       <c r="F32" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="129"/>
@@ -4429,7 +4315,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="77"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -4441,7 +4327,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="77"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -4453,7 +4339,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="77"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -4465,7 +4351,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="77"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4477,7 +4363,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="77"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -4489,11 +4375,11 @@
       <c r="J37" s="13"/>
       <c r="K37" s="77"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="13"/>
       <c r="D38" s="130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="130">
         <v>0.85</v>
@@ -4505,11 +4391,11 @@
       <c r="J38" s="13"/>
       <c r="K38" s="77"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="13"/>
       <c r="D39" s="149" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -4518,18 +4404,18 @@
       <c r="J39" s="13"/>
       <c r="K39" s="77"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="13"/>
       <c r="D40" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="130">
         <f>E32</f>
         <v>4400</v>
       </c>
       <c r="F40" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="129"/>
@@ -4537,11 +4423,11 @@
       <c r="J40" s="13"/>
       <c r="K40" s="77"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
       <c r="D41" s="149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -4551,7 +4437,7 @@
       <c r="J41" s="13"/>
       <c r="K41" s="77"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -4563,7 +4449,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="77"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -4575,7 +4461,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="77"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -4587,7 +4473,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="77"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -4599,7 +4485,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="77"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -4611,7 +4497,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="77"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -4623,7 +4509,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="77"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -4635,7 +4521,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="77"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="13"/>
       <c r="D49" s="130"/>
@@ -4647,7 +4533,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="77"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -4659,7 +4545,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="77"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="132"/>
       <c r="C51" s="130"/>
       <c r="D51" s="130"/>
@@ -4671,7 +4557,7 @@
       <c r="J51" s="130"/>
       <c r="K51" s="131"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="132"/>
       <c r="G52" s="130"/>
       <c r="H52" s="133"/>
@@ -4679,7 +4565,7 @@
       <c r="J52" s="130"/>
       <c r="K52" s="131"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="132"/>
       <c r="C53" s="130"/>
       <c r="D53" s="130"/>
@@ -4691,7 +4577,7 @@
       <c r="J53" s="130"/>
       <c r="K53" s="131"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="132"/>
       <c r="C54" s="130"/>
       <c r="D54" s="130"/>
@@ -4703,7 +4589,7 @@
       <c r="J54" s="130"/>
       <c r="K54" s="131"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="132"/>
       <c r="C55" s="130"/>
       <c r="D55" s="130"/>
@@ -4715,7 +4601,7 @@
       <c r="J55" s="130"/>
       <c r="K55" s="131"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="132"/>
       <c r="C56" s="130"/>
       <c r="G56" s="130"/>
@@ -4724,7 +4610,7 @@
       <c r="J56" s="130"/>
       <c r="K56" s="131"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="132"/>
       <c r="C57" s="130"/>
       <c r="D57" s="130"/>
@@ -4736,7 +4622,7 @@
       <c r="J57" s="130"/>
       <c r="K57" s="131"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="132"/>
       <c r="C58" s="130"/>
       <c r="G58" s="130"/>
@@ -4745,7 +4631,7 @@
       <c r="J58" s="130"/>
       <c r="K58" s="131"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="132"/>
       <c r="C59" s="130"/>
       <c r="D59" s="130"/>
@@ -4757,7 +4643,7 @@
       <c r="J59" s="130"/>
       <c r="K59" s="131"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="132"/>
       <c r="C60" s="130"/>
       <c r="D60" s="130"/>
@@ -4769,7 +4655,7 @@
       <c r="J60" s="130"/>
       <c r="K60" s="131"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="132"/>
       <c r="C61" s="130"/>
       <c r="D61" s="130"/>
@@ -4781,10 +4667,10 @@
       <c r="J61" s="130"/>
       <c r="K61" s="131"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="132"/>
       <c r="C62" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="130"/>
       <c r="E62" s="130"/>
@@ -4794,7 +4680,7 @@
       <c r="I62" s="130"/>
       <c r="J62" s="130"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="132"/>
       <c r="C63" s="130"/>
       <c r="D63" s="130"/>
@@ -4805,20 +4691,20 @@
       <c r="I63" s="130"/>
       <c r="J63" s="130"/>
       <c r="K63" s="131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="132"/>
       <c r="C64" s="130"/>
       <c r="D64" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" s="130">
         <v>6</v>
       </c>
       <c r="F64" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="130"/>
       <c r="H64" s="133"/>
@@ -4826,17 +4712,17 @@
       <c r="J64" s="130"/>
       <c r="K64" s="131"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="132"/>
       <c r="C65" s="130"/>
       <c r="D65" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="130">
         <v>220</v>
       </c>
       <c r="F65" s="130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G65" s="130"/>
       <c r="H65" s="133"/>
@@ -4844,18 +4730,18 @@
       <c r="J65" s="130"/>
       <c r="K65" s="131"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="132"/>
       <c r="C66" s="130"/>
       <c r="D66" s="152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="130">
         <f>E64*E65</f>
         <v>1320</v>
       </c>
       <c r="F66" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G66" s="130"/>
       <c r="H66" s="133"/>
@@ -4863,11 +4749,11 @@
       <c r="J66" s="130"/>
       <c r="K66" s="131"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="132"/>
       <c r="C67" s="130"/>
       <c r="D67" s="152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67" s="130">
         <v>15</v>
@@ -4879,18 +4765,18 @@
       <c r="J67" s="130"/>
       <c r="K67" s="131"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="132"/>
       <c r="C68" s="130"/>
       <c r="D68" s="152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" s="130">
         <f>E66*E67</f>
         <v>19800</v>
       </c>
       <c r="F68" s="152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G68" s="130"/>
       <c r="H68" s="133"/>
@@ -4898,7 +4784,7 @@
       <c r="J68" s="130"/>
       <c r="K68" s="131"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="132"/>
       <c r="C69" s="130"/>
       <c r="G69" s="130"/>
@@ -4907,7 +4793,7 @@
       <c r="J69" s="130"/>
       <c r="K69" s="131"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="132"/>
       <c r="C70" s="130"/>
       <c r="G70" s="130"/>
@@ -4916,7 +4802,7 @@
       <c r="J70" s="130"/>
       <c r="K70" s="131"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="132"/>
       <c r="C71" s="130"/>
       <c r="G71" s="130"/>
@@ -4925,7 +4811,7 @@
       <c r="J71" s="130"/>
       <c r="K71" s="131"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="132"/>
       <c r="C72" s="130"/>
       <c r="G72" s="130"/>
@@ -4934,7 +4820,7 @@
       <c r="J72" s="130"/>
       <c r="K72" s="131"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="132"/>
       <c r="C73" s="130"/>
       <c r="G73" s="130"/>
@@ -4942,10 +4828,10 @@
       <c r="I73" s="130"/>
       <c r="J73" s="130"/>
       <c r="K73" s="149" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="132"/>
       <c r="C74" s="130"/>
       <c r="D74" s="130"/>
@@ -4957,7 +4843,7 @@
       <c r="J74" s="130"/>
       <c r="K74" s="131"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="132"/>
       <c r="C75" s="130"/>
       <c r="D75" s="130"/>
@@ -4969,7 +4855,7 @@
       <c r="J75" s="130"/>
       <c r="K75" s="131"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="132"/>
       <c r="C76" s="130"/>
       <c r="D76" s="130"/>
@@ -4981,7 +4867,7 @@
       <c r="J76" s="130"/>
       <c r="K76" s="131"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="132"/>
       <c r="C77" s="130"/>
       <c r="D77" s="130"/>
@@ -4993,7 +4879,7 @@
       <c r="J77" s="130"/>
       <c r="K77" s="131"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="132"/>
       <c r="C78" s="130"/>
       <c r="G78" s="130"/>
@@ -5002,7 +4888,7 @@
       <c r="J78" s="130"/>
       <c r="K78" s="131"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="132"/>
       <c r="C79" s="130"/>
       <c r="G79" s="130"/>
@@ -5011,13 +4897,13 @@
       <c r="J79" s="130"/>
       <c r="K79" s="131"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="132"/>
       <c r="C80" s="130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G80" s="130"/>
       <c r="H80" s="133"/>
@@ -5025,38 +4911,38 @@
       <c r="J80" s="130"/>
       <c r="K80" s="131"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="132"/>
       <c r="C81" s="130"/>
       <c r="D81" s="130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E81" s="130">
         <f>(1-0.64)*E66</f>
         <v>475.2</v>
       </c>
       <c r="F81" s="148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G81" s="130"/>
       <c r="H81" s="133"/>
       <c r="I81" s="130"/>
       <c r="J81" s="130"/>
       <c r="K81" s="131" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="132"/>
       <c r="C82" s="130"/>
       <c r="D82" s="130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E82" s="130">
         <v>8760</v>
       </c>
       <c r="F82" s="148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G82" s="130"/>
       <c r="H82" s="133"/>
@@ -5064,7 +4950,7 @@
       <c r="J82" s="130"/>
       <c r="K82" s="131"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="132"/>
       <c r="C83" s="130"/>
       <c r="D83" s="130"/>
@@ -5076,18 +4962,18 @@
       <c r="J83" s="130"/>
       <c r="K83" s="131"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="132"/>
       <c r="C84" s="130"/>
       <c r="D84" s="130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E84" s="130">
         <f>E81/E82</f>
         <v>5.4246575342465755E-2</v>
       </c>
       <c r="F84" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G84" s="130"/>
       <c r="H84" s="133"/>
@@ -5095,7 +4981,7 @@
       <c r="J84" s="130"/>
       <c r="K84" s="131"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="132"/>
       <c r="C85" s="130"/>
       <c r="D85" s="130"/>
@@ -5107,7 +4993,7 @@
       <c r="J85" s="130"/>
       <c r="K85" s="131"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="132"/>
       <c r="C86" s="130"/>
       <c r="D86" s="130"/>
@@ -5119,7 +5005,7 @@
       <c r="J86" s="130"/>
       <c r="K86" s="131"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="132"/>
       <c r="C87" s="130"/>
       <c r="D87" s="130"/>
@@ -5131,7 +5017,7 @@
       <c r="J87" s="130"/>
       <c r="K87" s="131"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="132"/>
       <c r="C88" s="130"/>
       <c r="D88" s="130"/>
@@ -5143,7 +5029,7 @@
       <c r="J88" s="130"/>
       <c r="K88" s="131"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="132"/>
       <c r="C89" s="130"/>
       <c r="D89" s="130"/>
@@ -5155,7 +5041,7 @@
       <c r="J89" s="130"/>
       <c r="K89" s="131"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="132"/>
       <c r="C90" s="130"/>
       <c r="D90" s="130"/>
@@ -5167,7 +5053,7 @@
       <c r="J90" s="130"/>
       <c r="K90" s="131"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="132"/>
       <c r="C91" s="130"/>
       <c r="D91" s="130"/>
@@ -5179,7 +5065,7 @@
       <c r="J91" s="130"/>
       <c r="K91" s="131"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="132"/>
       <c r="C92" s="130"/>
       <c r="D92" s="130"/>
@@ -5191,7 +5077,7 @@
       <c r="J92" s="130"/>
       <c r="K92" s="131"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="132"/>
       <c r="C93" s="130"/>
       <c r="D93" s="130"/>
@@ -5203,7 +5089,7 @@
       <c r="J93" s="130"/>
       <c r="K93" s="131"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="132"/>
       <c r="C94" s="130"/>
       <c r="D94" s="130"/>
@@ -5215,7 +5101,7 @@
       <c r="J94" s="130"/>
       <c r="K94" s="131"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="132"/>
       <c r="C95" s="130"/>
       <c r="D95" s="130"/>
@@ -5227,7 +5113,7 @@
       <c r="J95" s="130"/>
       <c r="K95" s="131"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="132"/>
       <c r="C96" s="130"/>
       <c r="D96" s="130"/>
@@ -5239,7 +5125,7 @@
       <c r="J96" s="130"/>
       <c r="K96" s="131"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="132"/>
       <c r="C97" s="130"/>
       <c r="D97" s="130"/>
@@ -5251,7 +5137,7 @@
       <c r="J97" s="130"/>
       <c r="K97" s="131"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="132"/>
       <c r="C98" s="130"/>
       <c r="D98" s="130"/>
@@ -5263,7 +5149,7 @@
       <c r="J98" s="130"/>
       <c r="K98" s="131"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="132"/>
       <c r="C99" s="130"/>
       <c r="D99" s="130"/>
@@ -5275,7 +5161,7 @@
       <c r="J99" s="130"/>
       <c r="K99" s="131"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="132"/>
       <c r="C100" s="130"/>
       <c r="D100" s="130"/>
@@ -5287,7 +5173,7 @@
       <c r="J100" s="130"/>
       <c r="K100" s="131"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="132"/>
       <c r="C101" s="130"/>
       <c r="D101" s="130"/>
@@ -5299,7 +5185,7 @@
       <c r="J101" s="130"/>
       <c r="K101" s="131"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="132"/>
       <c r="C102" s="130"/>
       <c r="D102" s="130"/>
@@ -5311,7 +5197,7 @@
       <c r="J102" s="130"/>
       <c r="K102" s="131"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="132"/>
       <c r="C103" s="130"/>
       <c r="D103" s="130"/>
@@ -5323,7 +5209,7 @@
       <c r="J103" s="130"/>
       <c r="K103" s="131"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="132"/>
       <c r="C104" s="130"/>
       <c r="D104" s="130"/>
@@ -5335,7 +5221,7 @@
       <c r="J104" s="130"/>
       <c r="K104" s="131"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="132"/>
       <c r="C105" s="130"/>
       <c r="D105" s="130"/>
@@ -5347,7 +5233,7 @@
       <c r="J105" s="130"/>
       <c r="K105" s="131"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="132"/>
       <c r="C106" s="130"/>
       <c r="D106" s="130"/>
@@ -5359,7 +5245,7 @@
       <c r="J106" s="130"/>
       <c r="K106" s="131"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="132"/>
       <c r="C107" s="130"/>
       <c r="D107" s="130"/>
@@ -5371,7 +5257,7 @@
       <c r="J107" s="130"/>
       <c r="K107" s="131"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="132"/>
       <c r="C108" s="130"/>
       <c r="D108" s="130"/>
@@ -5383,7 +5269,7 @@
       <c r="J108" s="130"/>
       <c r="K108" s="131"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="132"/>
       <c r="C109" s="130"/>
       <c r="D109" s="130"/>
@@ -5395,7 +5281,7 @@
       <c r="J109" s="130"/>
       <c r="K109" s="131"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="132"/>
       <c r="C110" s="130"/>
       <c r="D110" s="130"/>
@@ -5407,7 +5293,7 @@
       <c r="J110" s="130"/>
       <c r="K110" s="131"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="132"/>
       <c r="C111" s="130"/>
       <c r="D111" s="130"/>
@@ -5419,7 +5305,7 @@
       <c r="J111" s="130"/>
       <c r="K111" s="131"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="132"/>
       <c r="C112" s="130"/>
       <c r="D112" s="130"/>
@@ -5431,7 +5317,7 @@
       <c r="J112" s="130"/>
       <c r="K112" s="131"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="132"/>
       <c r="C113" s="130"/>
       <c r="D113" s="130"/>
@@ -5443,7 +5329,7 @@
       <c r="J113" s="130"/>
       <c r="K113" s="131"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="132"/>
       <c r="C114" s="130"/>
       <c r="D114" s="130"/>
@@ -5455,7 +5341,7 @@
       <c r="J114" s="130"/>
       <c r="K114" s="131"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="132"/>
       <c r="C115" s="130"/>
       <c r="D115" s="130"/>
@@ -5467,7 +5353,7 @@
       <c r="J115" s="130"/>
       <c r="K115" s="131"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="132"/>
       <c r="C116" s="130"/>
       <c r="D116" s="130"/>
@@ -5479,7 +5365,7 @@
       <c r="J116" s="130"/>
       <c r="K116" s="131"/>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="132"/>
       <c r="C117" s="130"/>
       <c r="D117" s="130"/>
@@ -5491,7 +5377,7 @@
       <c r="J117" s="130"/>
       <c r="K117" s="131"/>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="132"/>
       <c r="C118" s="130"/>
       <c r="D118" s="130"/>
@@ -5503,7 +5389,7 @@
       <c r="J118" s="130"/>
       <c r="K118" s="131"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="132"/>
       <c r="C119" s="130"/>
       <c r="D119" s="130"/>
@@ -5515,7 +5401,7 @@
       <c r="J119" s="130"/>
       <c r="K119" s="131"/>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="132"/>
       <c r="C120" s="130"/>
       <c r="D120" s="130"/>
@@ -5527,7 +5413,7 @@
       <c r="J120" s="130"/>
       <c r="K120" s="131"/>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="132"/>
       <c r="C121" s="130"/>
       <c r="D121" s="130"/>
@@ -5539,7 +5425,7 @@
       <c r="J121" s="130"/>
       <c r="K121" s="131"/>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="132"/>
       <c r="C122" s="130"/>
       <c r="D122" s="130"/>
@@ -5551,7 +5437,7 @@
       <c r="J122" s="130"/>
       <c r="K122" s="131"/>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="132"/>
       <c r="C123" s="130"/>
       <c r="D123" s="130"/>
@@ -5563,7 +5449,7 @@
       <c r="J123" s="130"/>
       <c r="K123" s="131"/>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="132"/>
       <c r="C124" s="130"/>
       <c r="D124" s="130"/>
@@ -5575,7 +5461,7 @@
       <c r="J124" s="130"/>
       <c r="K124" s="131"/>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="132"/>
       <c r="C125" s="130"/>
       <c r="D125" s="130"/>
@@ -5587,7 +5473,7 @@
       <c r="J125" s="130"/>
       <c r="K125" s="131"/>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="132"/>
       <c r="C126" s="130"/>
       <c r="D126" s="130"/>
@@ -5599,7 +5485,7 @@
       <c r="J126" s="130"/>
       <c r="K126" s="131"/>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="132"/>
       <c r="C127" s="130"/>
       <c r="D127" s="130"/>
@@ -5611,7 +5497,7 @@
       <c r="J127" s="130"/>
       <c r="K127" s="131"/>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="132"/>
       <c r="C128" s="130"/>
       <c r="D128" s="130"/>
@@ -5623,7 +5509,7 @@
       <c r="J128" s="130"/>
       <c r="K128" s="131"/>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="132"/>
       <c r="C129" s="130"/>
       <c r="D129" s="130"/>
@@ -5635,7 +5521,7 @@
       <c r="J129" s="130"/>
       <c r="K129" s="131"/>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="132"/>
       <c r="C130" s="130"/>
       <c r="D130" s="130"/>
@@ -5647,7 +5533,7 @@
       <c r="J130" s="130"/>
       <c r="K130" s="131"/>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="132"/>
       <c r="C131" s="130"/>
       <c r="D131" s="130"/>
@@ -5659,7 +5545,7 @@
       <c r="J131" s="130"/>
       <c r="K131" s="131"/>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="132"/>
       <c r="C132" s="130"/>
       <c r="D132" s="130"/>
@@ -5671,7 +5557,7 @@
       <c r="J132" s="130"/>
       <c r="K132" s="131"/>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="132"/>
       <c r="C133" s="130"/>
       <c r="D133" s="130"/>
@@ -5683,7 +5569,7 @@
       <c r="J133" s="130"/>
       <c r="K133" s="131"/>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="132"/>
       <c r="C134" s="130"/>
       <c r="D134" s="130"/>
@@ -5695,7 +5581,7 @@
       <c r="J134" s="130"/>
       <c r="K134" s="131"/>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="132"/>
       <c r="C135" s="130"/>
       <c r="D135" s="130"/>
@@ -5707,7 +5593,7 @@
       <c r="J135" s="130"/>
       <c r="K135" s="131"/>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="132"/>
       <c r="C136" s="130"/>
       <c r="D136" s="130"/>
@@ -5719,7 +5605,7 @@
       <c r="J136" s="130"/>
       <c r="K136" s="131"/>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="132"/>
       <c r="C137" s="130"/>
       <c r="D137" s="130"/>
@@ -5731,7 +5617,7 @@
       <c r="J137" s="130"/>
       <c r="K137" s="131"/>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="132"/>
       <c r="C138" s="130"/>
       <c r="D138" s="130"/>
@@ -5743,7 +5629,7 @@
       <c r="J138" s="130"/>
       <c r="K138" s="131"/>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="132"/>
       <c r="C139" s="130"/>
       <c r="D139" s="130"/>
@@ -5755,7 +5641,7 @@
       <c r="J139" s="130"/>
       <c r="K139" s="131"/>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="132"/>
       <c r="C140" s="130"/>
       <c r="D140" s="130"/>
@@ -5767,7 +5653,7 @@
       <c r="J140" s="130"/>
       <c r="K140" s="131"/>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="132"/>
       <c r="C141" s="130"/>
       <c r="D141" s="130"/>
@@ -5779,7 +5665,7 @@
       <c r="J141" s="130"/>
       <c r="K141" s="131"/>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="132"/>
       <c r="C142" s="130"/>
       <c r="D142" s="130"/>
@@ -5791,7 +5677,7 @@
       <c r="J142" s="130"/>
       <c r="K142" s="131"/>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="132"/>
       <c r="C143" s="130"/>
       <c r="D143" s="130"/>
@@ -5803,7 +5689,7 @@
       <c r="J143" s="130"/>
       <c r="K143" s="131"/>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="132"/>
       <c r="C144" s="130"/>
       <c r="D144" s="130"/>
@@ -5815,7 +5701,7 @@
       <c r="J144" s="130"/>
       <c r="K144" s="131"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="132"/>
       <c r="C145" s="130"/>
       <c r="D145" s="130"/>
@@ -5827,7 +5713,7 @@
       <c r="J145" s="130"/>
       <c r="K145" s="131"/>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="132"/>
       <c r="C146" s="130"/>
       <c r="D146" s="130"/>
@@ -5839,7 +5725,7 @@
       <c r="J146" s="130"/>
       <c r="K146" s="131"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="132"/>
       <c r="C147" s="130"/>
       <c r="D147" s="130"/>
@@ -5851,7 +5737,7 @@
       <c r="J147" s="130"/>
       <c r="K147" s="131"/>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="132"/>
       <c r="C148" s="130"/>
       <c r="D148" s="130"/>
@@ -5863,7 +5749,7 @@
       <c r="J148" s="130"/>
       <c r="K148" s="131"/>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="132"/>
       <c r="C149" s="130"/>
       <c r="D149" s="130"/>
@@ -5875,7 +5761,7 @@
       <c r="J149" s="130"/>
       <c r="K149" s="131"/>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="132"/>
       <c r="C150" s="130"/>
       <c r="D150" s="130"/>
@@ -5887,7 +5773,7 @@
       <c r="J150" s="130"/>
       <c r="K150" s="131"/>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="132"/>
       <c r="C151" s="130"/>
       <c r="D151" s="130"/>
@@ -5899,7 +5785,7 @@
       <c r="J151" s="130"/>
       <c r="K151" s="131"/>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="132"/>
       <c r="C152" s="130"/>
       <c r="D152" s="130"/>
@@ -5911,7 +5797,7 @@
       <c r="J152" s="130"/>
       <c r="K152" s="131"/>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B153" s="132"/>
       <c r="C153" s="130"/>
       <c r="D153" s="130"/>
@@ -5923,7 +5809,7 @@
       <c r="J153" s="130"/>
       <c r="K153" s="131"/>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="132"/>
       <c r="C154" s="130"/>
       <c r="D154" s="130"/>
@@ -5935,7 +5821,7 @@
       <c r="J154" s="130"/>
       <c r="K154" s="131"/>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B155" s="132"/>
       <c r="C155" s="130"/>
       <c r="D155" s="130"/>
@@ -5947,7 +5833,7 @@
       <c r="J155" s="130"/>
       <c r="K155" s="131"/>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="132"/>
       <c r="C156" s="130"/>
       <c r="D156" s="130"/>
@@ -5959,7 +5845,7 @@
       <c r="J156" s="130"/>
       <c r="K156" s="131"/>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" s="132"/>
       <c r="C157" s="130"/>
       <c r="D157" s="130"/>
@@ -5971,7 +5857,7 @@
       <c r="J157" s="130"/>
       <c r="K157" s="131"/>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="132"/>
       <c r="C158" s="130"/>
       <c r="D158" s="130"/>
@@ -5983,7 +5869,7 @@
       <c r="J158" s="130"/>
       <c r="K158" s="131"/>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" s="132"/>
       <c r="C159" s="130"/>
       <c r="D159" s="130"/>
@@ -5995,7 +5881,7 @@
       <c r="J159" s="130"/>
       <c r="K159" s="131"/>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" s="132"/>
       <c r="C160" s="130"/>
       <c r="D160" s="130"/>
@@ -6007,7 +5893,7 @@
       <c r="J160" s="130"/>
       <c r="K160" s="131"/>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" s="132"/>
       <c r="C161" s="130"/>
       <c r="D161" s="130"/>
@@ -6019,7 +5905,7 @@
       <c r="J161" s="130"/>
       <c r="K161" s="131"/>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" s="132"/>
       <c r="C162" s="130"/>
       <c r="D162" s="130"/>
@@ -6031,7 +5917,7 @@
       <c r="J162" s="130"/>
       <c r="K162" s="131"/>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" s="132"/>
       <c r="C163" s="130"/>
       <c r="D163" s="130"/>
@@ -6043,7 +5929,7 @@
       <c r="J163" s="130"/>
       <c r="K163" s="131"/>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" s="132"/>
       <c r="C164" s="130"/>
       <c r="D164" s="130"/>
@@ -6055,7 +5941,7 @@
       <c r="J164" s="130"/>
       <c r="K164" s="131"/>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" s="132"/>
       <c r="C165" s="130"/>
       <c r="D165" s="130"/>
@@ -6067,7 +5953,7 @@
       <c r="J165" s="130"/>
       <c r="K165" s="131"/>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="132"/>
       <c r="C166" s="130"/>
       <c r="D166" s="130"/>
@@ -6083,10 +5969,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE2695-441C-4F40-BEB8-020AA8525FA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>Source</t>
   </si>
@@ -185,21 +186,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
   </si>
   <si>
     <t>Author</t>
@@ -449,7 +435,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -457,7 +443,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1218,7 +1204,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1434,9 +1420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,6 +1798,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1836,7 +1822,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1874,7 +1866,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1907,7 +1905,13 @@
     <xdr:ext cx="3416300" cy="1785104"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2011,7 +2015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2049,7 +2059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2509,59 +2525,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="14"/>
+    <col min="1" max="1" width="3.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="19" customFormat="1">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2570,136 +2586,136 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="71"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="72"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" s="72"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="54"/>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="72"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="54"/>
       <c r="C13" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D13" s="72"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="54"/>
       <c r="C14" s="55" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="72"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
       <c r="D15" s="72"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="72"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="54"/>
       <c r="C17" s="59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17" s="72"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="54"/>
       <c r="C18" s="60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="72"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="54"/>
       <c r="C19" s="61" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19" s="72"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="62"/>
       <c r="C20" s="63" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" s="72"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="72"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="62"/>
       <c r="C22" s="65" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="72"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="62"/>
       <c r="C23" s="66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="72"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="75"/>
@@ -2711,67 +2727,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="83" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="83" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="83" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="83" customWidth="1"/>
     <col min="3" max="3" width="46" style="83" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="83" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="83" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="83" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="83" customWidth="1"/>
     <col min="7" max="7" width="45" style="83" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="83" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="83" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="83" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="83"/>
+    <col min="8" max="8" width="5.1640625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="83" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="83" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="16" customHeight="1">
       <c r="D1" s="84"/>
       <c r="E1" s="84"/>
       <c r="F1" s="84"/>
       <c r="G1" s="84"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="154" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+    <row r="2" spans="2:11" ht="16" customHeight="1">
+      <c r="B2" s="153" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="84"/>
       <c r="G2" s="84"/>
     </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+    <row r="3" spans="2:11" ht="16" customHeight="1">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="84"/>
       <c r="G3" s="84"/>
     </row>
-    <row r="4" spans="2:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+    <row r="4" spans="2:11" ht="32" customHeight="1">
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="84"/>
       <c r="G4" s="84"/>
     </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="D5" s="84"/>
     </row>
-    <row r="6" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="16" customHeight="1">
       <c r="B6" s="85"/>
       <c r="C6" s="86"/>
       <c r="D6" s="86"/>
@@ -2782,7 +2798,7 @@
       <c r="I6" s="86"/>
       <c r="J6" s="87"/>
     </row>
-    <row r="7" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
         <v>21</v>
@@ -2803,7 +2819,7 @@
       </c>
       <c r="J7" s="91"/>
     </row>
-    <row r="8" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
@@ -2814,10 +2830,10 @@
       <c r="I8" s="94"/>
       <c r="J8" s="96"/>
     </row>
-    <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="93"/>
       <c r="C9" s="94" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="94"/>
@@ -2827,48 +2843,48 @@
       <c r="I9" s="94"/>
       <c r="J9" s="96"/>
     </row>
-    <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="93"/>
       <c r="C10" s="106" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="144">
+        <v>102</v>
+      </c>
+      <c r="E10" s="143">
         <f>'Research data'!G6</f>
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
-      <c r="I10" s="146" t="s">
-        <v>85</v>
+      <c r="I10" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="J10" s="96"/>
     </row>
-    <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="93"/>
       <c r="C11" s="106" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="144">
         <f>'Research data'!G7</f>
         <v>5.4246575342465753E-8</v>
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
-      <c r="I11" s="146" t="s">
-        <v>85</v>
+      <c r="I11" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="J11" s="96"/>
     </row>
-    <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="150" t="s">
-        <v>120</v>
+      <c r="C12" s="149" t="s">
+        <v>115</v>
       </c>
       <c r="D12" s="110" t="s">
         <v>4</v>
@@ -2879,29 +2895,29 @@
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="109"/>
-      <c r="I12" s="146" t="s">
-        <v>85</v>
+      <c r="I12" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="J12" s="96"/>
     </row>
-    <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="93"/>
       <c r="C13" s="106" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="110"/>
-      <c r="E13" s="144">
+      <c r="E13" s="143">
         <f>'Research data'!G9</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F13" s="108"/>
       <c r="G13" s="109"/>
-      <c r="I13" s="146" t="s">
-        <v>85</v>
+      <c r="I13" s="145" t="s">
+        <v>80</v>
       </c>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="97"/>
       <c r="C14" s="108" t="s">
         <v>23</v>
@@ -2914,13 +2930,13 @@
       </c>
       <c r="F14" s="108"/>
       <c r="G14" s="108"/>
-      <c r="I14" s="146" t="s">
-        <v>116</v>
+      <c r="I14" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J14" s="98"/>
       <c r="K14" s="84"/>
     </row>
-    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="97"/>
       <c r="C15" s="108" t="s">
         <v>25</v>
@@ -2933,16 +2949,16 @@
       </c>
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
-      <c r="I15" s="146" t="s">
-        <v>116</v>
+      <c r="I15" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J15" s="98"/>
       <c r="K15" s="84"/>
     </row>
-    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="97"/>
       <c r="C16" s="112" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>4</v>
@@ -2952,13 +2968,13 @@
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="108"/>
-      <c r="I16" s="146" t="s">
-        <v>116</v>
+      <c r="I16" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J16" s="98"/>
       <c r="K16" s="84"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="97"/>
       <c r="C17" s="108" t="s">
         <v>7</v>
@@ -2971,13 +2987,13 @@
       </c>
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
-      <c r="I17" s="146" t="s">
-        <v>116</v>
+      <c r="I17" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J17" s="98"/>
       <c r="K17" s="84"/>
     </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="97"/>
       <c r="C18" s="108" t="s">
         <v>28</v>
@@ -2990,13 +3006,13 @@
       </c>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
-      <c r="I18" s="146" t="s">
-        <v>116</v>
+      <c r="I18" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="84"/>
     </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="97"/>
       <c r="C19" s="108" t="s">
         <v>29</v>
@@ -3009,13 +3025,13 @@
       </c>
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
-      <c r="I19" s="146" t="s">
-        <v>116</v>
+      <c r="I19" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J19" s="98"/>
       <c r="K19" s="84"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="97"/>
       <c r="C20" s="108" t="s">
         <v>31</v>
@@ -3028,470 +3044,380 @@
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="I20" s="146" t="s">
-        <v>116</v>
+      <c r="I20" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="16" customHeight="1">
       <c r="B21" s="97"/>
-      <c r="C21" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="107">
-        <v>0</v>
-      </c>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="I21" s="146" t="s">
-        <v>116</v>
-      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="97"/>
-      <c r="C22" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="107">
-        <v>0</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="I22" s="146" t="s">
-        <v>116</v>
-      </c>
+      <c r="C22" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="I22" s="84"/>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="97"/>
-      <c r="C23" s="115" t="s">
-        <v>47</v>
+      <c r="C23" s="108" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="107">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E23" s="111">
+        <f>'Research data'!G13</f>
+        <v>7147.59</v>
       </c>
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
-      <c r="I23" s="146" t="s">
-        <v>116</v>
+      <c r="I23" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="97"/>
-      <c r="C24" s="115" t="s">
-        <v>48</v>
+      <c r="C24" s="108" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="107">
+        <v>22</v>
+      </c>
+      <c r="E24" s="111">
         <v>0</v>
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
-      <c r="I24" s="146" t="s">
-        <v>116</v>
+      <c r="I24" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="97"/>
-      <c r="C25" s="115" t="s">
-        <v>49</v>
+      <c r="C25" s="108" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E25" s="111">
         <v>0</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
-      <c r="I25" s="146" t="s">
-        <v>116</v>
+      <c r="I25" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="97"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="C26" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="111">
+        <v>0</v>
+      </c>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="I26" s="145" t="s">
+        <v>111</v>
+      </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="97"/>
-      <c r="C27" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="I27" s="84"/>
+      <c r="C27" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="115">
+        <v>0</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="I27" s="145" t="s">
+        <v>111</v>
+      </c>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="97"/>
       <c r="C28" s="108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="111">
-        <f>'Research data'!G13</f>
-        <v>7147.59</v>
+        <v>41</v>
+      </c>
+      <c r="E28" s="107">
+        <v>0</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
-      <c r="I28" s="146" t="s">
-        <v>116</v>
+      <c r="I28" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="97"/>
       <c r="C29" s="108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="111">
+        <v>41</v>
+      </c>
+      <c r="E29" s="116">
         <v>0</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
-      <c r="I29" s="146" t="s">
-        <v>116</v>
+      <c r="I29" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="97"/>
       <c r="C30" s="108" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D30" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="111">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="107">
+        <v>0.04</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="108"/>
-      <c r="I30" s="146" t="s">
-        <v>116</v>
+      <c r="I30" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="97"/>
       <c r="C31" s="108" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E31" s="111">
         <v>0</v>
       </c>
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
-      <c r="I31" s="146" t="s">
-        <v>116</v>
+      <c r="I31" s="145" t="s">
+        <v>111</v>
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="16" customHeight="1">
       <c r="B32" s="97"/>
-      <c r="C32" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="116">
-        <v>0</v>
-      </c>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="I32" s="146" t="s">
-        <v>116</v>
-      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="I32" s="84"/>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="97"/>
-      <c r="C33" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="107">
-        <v>0</v>
-      </c>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="I33" s="146" t="s">
-        <v>116</v>
-      </c>
+      <c r="C33" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="97"/>
       <c r="C34" s="108" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D34" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="117">
+        <v>3</v>
+      </c>
+      <c r="E34" s="111">
         <v>0</v>
       </c>
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
       <c r="I34" s="146" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="97"/>
       <c r="C35" s="108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="107">
-        <v>0.04</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="115">
+        <v>0</v>
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="I35" s="146" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="97"/>
       <c r="C36" s="108" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E36" s="111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
       <c r="I36" s="146" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="97"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="C37" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="111">
+        <v>0</v>
+      </c>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="I37" s="146" t="s">
+        <v>111</v>
+      </c>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B38" s="97"/>
-      <c r="C38" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="I38" s="84"/>
+      <c r="C38" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="115">
+        <v>0</v>
+      </c>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="I38" s="146" t="s">
+        <v>111</v>
+      </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B39" s="97"/>
-      <c r="C39" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="111">
+      <c r="C39" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="115">
         <v>0</v>
       </c>
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
-      <c r="I39" s="147" t="s">
-        <v>116</v>
+      <c r="I39" s="146" t="s">
+        <v>111</v>
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B40" s="97"/>
-      <c r="C40" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="116">
+      <c r="C40" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="115">
         <v>0</v>
       </c>
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
-      <c r="I40" s="147" t="s">
-        <v>116</v>
+      <c r="I40" s="146" t="s">
+        <v>111</v>
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B41" s="97"/>
-      <c r="C41" s="108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="111">
-        <v>10</v>
+      <c r="C41" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="110"/>
+      <c r="E41" s="115">
+        <v>0</v>
       </c>
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
-      <c r="I41" s="147" t="s">
-        <v>116</v>
+      <c r="I41" s="146" t="s">
+        <v>111</v>
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B42" s="97"/>
-      <c r="C42" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="111">
+      <c r="C42" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="110"/>
+      <c r="E42" s="115">
         <v>0</v>
       </c>
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
-      <c r="I42" s="147" t="s">
-        <v>116</v>
+      <c r="I42" s="146" t="s">
+        <v>111</v>
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="97"/>
-      <c r="C43" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="116">
-        <v>0</v>
-      </c>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="I43" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="98"/>
-    </row>
-    <row r="44" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
-      <c r="C44" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="116">
-        <v>0</v>
-      </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="I44" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="98"/>
-    </row>
-    <row r="45" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="97"/>
-      <c r="C45" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="116">
-        <v>0</v>
-      </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="I45" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="98"/>
-    </row>
-    <row r="46" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="97"/>
-      <c r="C46" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="116">
-        <v>0</v>
-      </c>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="I46" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="98"/>
-    </row>
-    <row r="47" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="116">
-        <v>0</v>
-      </c>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="I47" s="147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="98"/>
-    </row>
-    <row r="48" spans="2:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="103"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="105"/>
+    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B43" s="103"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3503,8 +3429,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:L14"/>
@@ -3513,24 +3439,24 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="38" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="38" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="38" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" customWidth="1"/>
     <col min="9" max="9" width="16" style="38" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
     <col min="11" max="11" width="60" style="38" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="38" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="38"/>
+    <col min="12" max="12" width="2.1640625" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="40"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -3543,10 +3469,10 @@
       <c r="K2" s="41"/>
       <c r="L2" s="76"/>
     </row>
-    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" s="16" customFormat="1">
       <c r="B3" s="15"/>
       <c r="C3" s="68" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3554,17 +3480,17 @@
         <v>11</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="36"/>
       <c r="K3" s="68" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L3" s="77"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3577,10 +3503,10 @@
       <c r="K4" s="9"/>
       <c r="L4" s="78"/>
     </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="43"/>
       <c r="C5" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -3592,15 +3518,15 @@
       <c r="K5" s="37"/>
       <c r="L5" s="78"/>
     </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="43"/>
-      <c r="C6" s="137" t="s">
-        <v>91</v>
+      <c r="C6" s="136" t="s">
+        <v>86</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="138" t="s">
-        <v>107</v>
+      <c r="F6" s="137" t="s">
+        <v>102</v>
       </c>
       <c r="G6" s="70">
         <f>Notes!E11/1000000</f>
@@ -3609,88 +3535,88 @@
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="142" t="s">
-        <v>110</v>
+      <c r="K6" s="141" t="s">
+        <v>105</v>
       </c>
       <c r="L6" s="78"/>
     </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="137" t="s">
-        <v>102</v>
+      <c r="C7" s="136" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="140">
+      <c r="G7" s="139">
         <f>Notes!E84/1000000</f>
         <v>5.4246575342465753E-8</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="142" t="s">
-        <v>111</v>
+      <c r="K7" s="141" t="s">
+        <v>106</v>
       </c>
       <c r="L7" s="78"/>
     </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="43"/>
-      <c r="C8" s="137" t="s">
-        <v>108</v>
+      <c r="C8" s="136" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="138" t="s">
+      <c r="F8" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="139">
+      <c r="G8" s="138">
         <f>Notes!E40/1000000</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="142" t="s">
-        <v>112</v>
+      <c r="K8" s="141" t="s">
+        <v>107</v>
       </c>
       <c r="L8" s="78"/>
     </row>
-    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="43"/>
-      <c r="C9" s="137" t="s">
-        <v>94</v>
+      <c r="C9" s="136" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="138" t="s">
+      <c r="F9" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="141">
+      <c r="G9" s="140">
         <f>Notes!E32/1000000</f>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="45"/>
-      <c r="K9" s="142" t="s">
-        <v>113</v>
+      <c r="K9" s="141" t="s">
+        <v>108</v>
       </c>
       <c r="L9" s="78"/>
     </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="43"/>
-      <c r="C10" s="137" t="s">
-        <v>115</v>
+      <c r="C10" s="136" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="138" t="s">
+      <c r="F10" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="143">
+      <c r="G10" s="142">
         <f>Notes!E38</f>
         <v>0.85</v>
       </c>
@@ -3700,7 +3626,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="78"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="43"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -3712,10 +3638,10 @@
       <c r="J11" s="48"/>
       <c r="L11" s="78"/>
     </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="43"/>
       <c r="C12" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3727,15 +3653,15 @@
       <c r="K12" s="37"/>
       <c r="L12" s="78"/>
     </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="43"/>
-      <c r="C13" s="137" t="s">
-        <v>109</v>
+      <c r="C13" s="136" t="s">
+        <v>104</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="137" t="s">
-        <v>88</v>
+      <c r="F13" s="136" t="s">
+        <v>83</v>
       </c>
       <c r="G13" s="51">
         <f>Notes!E8</f>
@@ -3747,7 +3673,7 @@
       <c r="K13" s="69"/>
       <c r="L13" s="78"/>
     </row>
-    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="80"/>
@@ -3767,8 +3693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K7"/>
@@ -3777,22 +3703,22 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="23" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="23" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="24" customWidth="1"/>
     <col min="11" max="11" width="66" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="23"/>
+    <col min="12" max="16384" width="33.1640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -3804,7 +3730,7 @@
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="28"/>
       <c r="C3" s="29" t="s">
         <v>18</v>
@@ -3818,7 +3744,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="28"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -3830,7 +3756,7 @@
       <c r="J4" s="32"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
         <v>19</v>
@@ -3846,36 +3772,36 @@
         <v>20</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="C7" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="135">
+        <v>101</v>
+      </c>
+      <c r="H7" s="134">
         <v>2016</v>
       </c>
-      <c r="I7" s="136">
+      <c r="I7" s="135">
         <v>42397</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3885,8 +3811,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:K166"/>
@@ -3895,2075 +3821,2075 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="119" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="119" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="119" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="119" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="119" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="119"/>
-    <col min="8" max="8" width="10.7109375" style="120"/>
-    <col min="9" max="9" width="10.7109375" style="119"/>
-    <col min="10" max="10" width="35" style="119" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="119" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="119"/>
+    <col min="1" max="1" width="3.5" style="118" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="118" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="118" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="118" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="118" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="118"/>
+    <col min="8" max="8" width="10.6640625" style="119"/>
+    <col min="9" max="9" width="10.6640625" style="118"/>
+    <col min="10" max="10" width="35" style="118" customWidth="1"/>
+    <col min="11" max="11" width="63.33203125" style="118" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="118"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="124"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126" t="s">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="123"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="124"/>
+      <c r="C4" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="126" t="s">
+      <c r="D4" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="128" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G4" s="125"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="15"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="129"/>
+      <c r="H5" s="128"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="77"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="15"/>
-      <c r="C6" s="130" t="s">
-        <v>85</v>
+      <c r="C6" s="129" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="129"/>
+      <c r="H6" s="128"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="131" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="15"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="129"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="77"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="15"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="130">
+      <c r="D8" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="129">
         <f>(6428+1603)*E9</f>
         <v>7147.59</v>
       </c>
-      <c r="F8" s="130" t="s">
-        <v>88</v>
+      <c r="F8" s="129" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="129"/>
+      <c r="H8" s="128"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="77"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="15"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="130">
+      <c r="D9" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="129">
         <v>0.89</v>
       </c>
-      <c r="F9" s="130" t="s">
-        <v>90</v>
+      <c r="F9" s="129" t="s">
+        <v>85</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="129"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="77"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="15"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="129"/>
+      <c r="H10" s="128"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="77"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="15"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="130">
+      <c r="D11" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="129">
         <f>E68</f>
         <v>19800</v>
       </c>
-      <c r="F11" s="130" t="s">
-        <v>92</v>
+      <c r="F11" s="129" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="129"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="77"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="15"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="129"/>
+      <c r="H12" s="128"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="77"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="15"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="129"/>
+      <c r="H13" s="128"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="77"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="15"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="129"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="77"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="15"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="129"/>
+      <c r="H15" s="128"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="77"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="15"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="129"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="77"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="129"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="77"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="15"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="129"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="77"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="15"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="129"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="77"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="129"/>
+      <c r="H20" s="128"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="77"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="129"/>
+      <c r="H21" s="128"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="77"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="132"/>
-      <c r="C22" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
+    <row r="22" spans="2:11">
+      <c r="B22" s="131"/>
+      <c r="C22" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="129"/>
+      <c r="H22" s="128"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="131"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="130"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="15"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="129"/>
+      <c r="H23" s="128"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="153" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="129"/>
+      <c r="H24" s="128"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="77"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="129"/>
+      <c r="H25" s="128"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="77"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="15"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="129"/>
+      <c r="H26" s="128"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="77"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="15"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="129"/>
+      <c r="H27" s="128"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="77"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="129"/>
+      <c r="H28" s="128"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="77"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="129"/>
+      <c r="H29" s="128"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="77"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11">
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="129"/>
+      <c r="H30" s="128"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="77"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="129"/>
+      <c r="H31" s="128"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="77"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="15"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="130" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="130">
+      <c r="D32" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="129">
         <v>4400</v>
       </c>
-      <c r="F32" s="130" t="s">
-        <v>95</v>
+      <c r="F32" s="129" t="s">
+        <v>90</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="129"/>
+      <c r="H32" s="128"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="77"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="15"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="129"/>
+      <c r="H33" s="128"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="77"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="15"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="129"/>
+      <c r="H34" s="128"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="77"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11">
       <c r="B35" s="15"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="129"/>
+      <c r="H35" s="128"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="77"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11">
       <c r="B36" s="15"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="129"/>
+      <c r="H36" s="128"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="77"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11">
       <c r="B37" s="15"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="129"/>
+      <c r="H37" s="128"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="77"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="15"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="130">
+      <c r="D38" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="129">
         <v>0.85</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="129"/>
+      <c r="H38" s="128"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="77"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="15"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="149" t="s">
-        <v>118</v>
+      <c r="D39" s="148" t="s">
+        <v>113</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="129"/>
+      <c r="H39" s="128"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="77"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="15"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="130">
+      <c r="D40" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="129">
         <f>E32</f>
         <v>4400</v>
       </c>
-      <c r="F40" s="130" t="s">
-        <v>95</v>
+      <c r="F40" s="129" t="s">
+        <v>90</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="129"/>
+      <c r="H40" s="128"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="77"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="149" t="s">
-        <v>117</v>
+      <c r="D41" s="148" t="s">
+        <v>112</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="129"/>
+      <c r="H41" s="128"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="77"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="15"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="129"/>
+      <c r="H42" s="128"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="77"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="15"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="129"/>
+      <c r="H43" s="128"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="77"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="15"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="129"/>
+      <c r="H44" s="128"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="77"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="15"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="129"/>
+      <c r="H45" s="128"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="77"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="15"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="129"/>
+      <c r="H46" s="128"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="77"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="15"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="129"/>
+      <c r="H47" s="128"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="77"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="15"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="129"/>
+      <c r="H48" s="128"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="77"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="15"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="130"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="129"/>
+      <c r="H49" s="128"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="77"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="15"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="129"/>
+      <c r="H50" s="128"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="77"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="132"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="131"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="132"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="131"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="132"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="131"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="132"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="131"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="132"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="131"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="132"/>
-      <c r="C56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="131"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="132"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="131"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="132"/>
-      <c r="C58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="131"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="132"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="131"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="132"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="131"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="132"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="131"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="132"/>
-      <c r="C62" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="132"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="131" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="132"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="130">
+    <row r="51" spans="2:11">
+      <c r="B51" s="131"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="130"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="131"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="130"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="131"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="130"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="131"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="130"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="131"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="130"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="131"/>
+      <c r="C56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="130"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="131"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="130"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="131"/>
+      <c r="C58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="130"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="131"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="130"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="131"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="130"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="131"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="130"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="131"/>
+      <c r="C62" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="131"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="131"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="129">
         <v>6</v>
       </c>
-      <c r="F64" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" s="130"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="131"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="132"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="130">
+      <c r="F64" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="129"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="130"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="131"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="129">
         <v>220</v>
       </c>
-      <c r="F65" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="130"/>
-      <c r="J65" s="130"/>
-      <c r="K65" s="131"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="132"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="152" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="130">
+      <c r="F65" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="129"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="129"/>
+      <c r="J65" s="129"/>
+      <c r="K65" s="130"/>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="131"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="129">
         <f>E64*E65</f>
         <v>1320</v>
       </c>
-      <c r="F66" s="130" t="s">
-        <v>92</v>
-      </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="131"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="132"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="130">
+      <c r="F66" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="129"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="130"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="131"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="129">
         <v>15</v>
       </c>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="131"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="132"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="152" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="130">
+      <c r="F67" s="129"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="129"/>
+      <c r="J67" s="129"/>
+      <c r="K67" s="130"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="131"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="129">
         <f>E66*E67</f>
         <v>19800</v>
       </c>
-      <c r="F68" s="152" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" s="130"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="131"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B69" s="132"/>
-      <c r="C69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="131"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="132"/>
-      <c r="C70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="131"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="132"/>
-      <c r="C71" s="130"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="131"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="132"/>
-      <c r="C72" s="130"/>
-      <c r="G72" s="130"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="130"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="131"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="132"/>
-      <c r="C73" s="130"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="149" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="132"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="133"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="131"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="132"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="130"/>
-      <c r="F75" s="130"/>
-      <c r="G75" s="130"/>
-      <c r="H75" s="133"/>
-      <c r="I75" s="130"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="131"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="132"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
-      <c r="G76" s="130"/>
-      <c r="H76" s="133"/>
-      <c r="I76" s="130"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="131"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="132"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="130"/>
-      <c r="F77" s="130"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="133"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="K77" s="131"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="132"/>
-      <c r="C78" s="130"/>
-      <c r="G78" s="130"/>
-      <c r="H78" s="133"/>
-      <c r="I78" s="130"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="131"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="132"/>
-      <c r="C79" s="130"/>
-      <c r="G79" s="130"/>
-      <c r="H79" s="133"/>
-      <c r="I79" s="130"/>
-      <c r="J79" s="130"/>
-      <c r="K79" s="131"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="132"/>
-      <c r="C80" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="151" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="130"/>
-      <c r="H80" s="133"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="131"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="132"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="130">
+      <c r="F68" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="129"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="130"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="131"/>
+      <c r="C69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="129"/>
+      <c r="K69" s="130"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="131"/>
+      <c r="C70" s="129"/>
+      <c r="G70" s="129"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="129"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="130"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="131"/>
+      <c r="C71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="129"/>
+      <c r="J71" s="129"/>
+      <c r="K71" s="130"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="131"/>
+      <c r="C72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="129"/>
+      <c r="K72" s="130"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="131"/>
+      <c r="C73" s="129"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="131"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="129"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="129"/>
+      <c r="J74" s="129"/>
+      <c r="K74" s="130"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="131"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="129"/>
+      <c r="F75" s="129"/>
+      <c r="G75" s="129"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="130"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="131"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="129"/>
+      <c r="F76" s="129"/>
+      <c r="G76" s="129"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="129"/>
+      <c r="J76" s="129"/>
+      <c r="K76" s="130"/>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="131"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="129"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="129"/>
+      <c r="J77" s="129"/>
+      <c r="K77" s="130"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="131"/>
+      <c r="C78" s="129"/>
+      <c r="G78" s="129"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="129"/>
+      <c r="J78" s="129"/>
+      <c r="K78" s="130"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="131"/>
+      <c r="C79" s="129"/>
+      <c r="G79" s="129"/>
+      <c r="H79" s="132"/>
+      <c r="I79" s="129"/>
+      <c r="J79" s="129"/>
+      <c r="K79" s="130"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="131"/>
+      <c r="C80" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="G80" s="129"/>
+      <c r="H80" s="132"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="129"/>
+      <c r="K80" s="130"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="131"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="129">
         <f>(1-0.64)*E66</f>
         <v>475.2</v>
       </c>
-      <c r="F81" s="148" t="s">
+      <c r="F81" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" s="129"/>
+      <c r="H81" s="132"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="129"/>
+      <c r="K81" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="G81" s="130"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="131" t="s">
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="131"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="129">
+        <v>8760</v>
+      </c>
+      <c r="F82" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="129"/>
+      <c r="H82" s="132"/>
+      <c r="I82" s="129"/>
+      <c r="J82" s="129"/>
+      <c r="K82" s="130"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="131"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
+      <c r="H83" s="132"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="129"/>
+      <c r="K83" s="130"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="131"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="132"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="130">
-        <v>8760</v>
-      </c>
-      <c r="F82" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="130"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="130"/>
-      <c r="J82" s="130"/>
-      <c r="K82" s="131"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="132"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="130"/>
-      <c r="E83" s="130"/>
-      <c r="F83" s="130"/>
-      <c r="G83" s="130"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="130"/>
-      <c r="J83" s="130"/>
-      <c r="K83" s="131"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="132"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="130">
+      <c r="E84" s="129">
         <f>E81/E82</f>
         <v>5.4246575342465755E-2</v>
       </c>
-      <c r="F84" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" s="130"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="131"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="132"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="130"/>
-      <c r="F85" s="130"/>
-      <c r="G85" s="130"/>
-      <c r="H85" s="133"/>
-      <c r="I85" s="130"/>
-      <c r="J85" s="130"/>
-      <c r="K85" s="131"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="132"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
-      <c r="F86" s="130"/>
-      <c r="G86" s="130"/>
-      <c r="H86" s="133"/>
-      <c r="I86" s="130"/>
-      <c r="J86" s="130"/>
-      <c r="K86" s="131"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="132"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="130"/>
-      <c r="F87" s="130"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="133"/>
-      <c r="I87" s="130"/>
-      <c r="J87" s="130"/>
-      <c r="K87" s="131"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="132"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="130"/>
-      <c r="J88" s="130"/>
-      <c r="K88" s="131"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="132"/>
-      <c r="C89" s="130"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="130"/>
-      <c r="F89" s="130"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="133"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="131"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="132"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="130"/>
-      <c r="F90" s="130"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="130"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="131"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="132"/>
-      <c r="C91" s="130"/>
-      <c r="D91" s="130"/>
-      <c r="E91" s="130"/>
-      <c r="F91" s="130"/>
-      <c r="G91" s="130"/>
-      <c r="H91" s="133"/>
-      <c r="I91" s="130"/>
-      <c r="J91" s="130"/>
-      <c r="K91" s="131"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="132"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="130"/>
-      <c r="G92" s="130"/>
-      <c r="H92" s="133"/>
-      <c r="I92" s="130"/>
-      <c r="J92" s="130"/>
-      <c r="K92" s="131"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="132"/>
-      <c r="C93" s="130"/>
-      <c r="D93" s="130"/>
-      <c r="E93" s="130"/>
-      <c r="F93" s="130"/>
-      <c r="G93" s="130"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="130"/>
-      <c r="J93" s="130"/>
-      <c r="K93" s="131"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="132"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="130"/>
-      <c r="F94" s="130"/>
-      <c r="G94" s="130"/>
-      <c r="H94" s="133"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="131"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="132"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="130"/>
-      <c r="F95" s="130"/>
-      <c r="G95" s="130"/>
-      <c r="H95" s="133"/>
-      <c r="I95" s="130"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="131"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="132"/>
-      <c r="C96" s="130"/>
-      <c r="D96" s="130"/>
-      <c r="E96" s="130"/>
-      <c r="F96" s="130"/>
-      <c r="G96" s="130"/>
-      <c r="H96" s="133"/>
-      <c r="I96" s="130"/>
-      <c r="J96" s="130"/>
-      <c r="K96" s="131"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="132"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="130"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="130"/>
-      <c r="G97" s="130"/>
-      <c r="H97" s="133"/>
-      <c r="I97" s="130"/>
-      <c r="J97" s="130"/>
-      <c r="K97" s="131"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="132"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="130"/>
-      <c r="E98" s="130"/>
-      <c r="F98" s="130"/>
-      <c r="G98" s="130"/>
-      <c r="H98" s="133"/>
-      <c r="I98" s="130"/>
-      <c r="J98" s="130"/>
-      <c r="K98" s="131"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="132"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="130"/>
-      <c r="F99" s="130"/>
-      <c r="G99" s="130"/>
-      <c r="H99" s="133"/>
-      <c r="I99" s="130"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="131"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="132"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="130"/>
-      <c r="E100" s="130"/>
-      <c r="F100" s="130"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="133"/>
-      <c r="I100" s="130"/>
-      <c r="J100" s="130"/>
-      <c r="K100" s="131"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="132"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="130"/>
-      <c r="E101" s="130"/>
-      <c r="F101" s="130"/>
-      <c r="G101" s="130"/>
-      <c r="H101" s="133"/>
-      <c r="I101" s="130"/>
-      <c r="J101" s="130"/>
-      <c r="K101" s="131"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="132"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="130"/>
-      <c r="F102" s="130"/>
-      <c r="G102" s="130"/>
-      <c r="H102" s="133"/>
-      <c r="I102" s="130"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="131"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="132"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
-      <c r="E103" s="130"/>
-      <c r="F103" s="130"/>
-      <c r="G103" s="130"/>
-      <c r="H103" s="133"/>
-      <c r="I103" s="130"/>
-      <c r="J103" s="130"/>
-      <c r="K103" s="131"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="132"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="130"/>
-      <c r="F104" s="130"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="133"/>
-      <c r="I104" s="130"/>
-      <c r="J104" s="130"/>
-      <c r="K104" s="131"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="132"/>
-      <c r="C105" s="130"/>
-      <c r="D105" s="130"/>
-      <c r="E105" s="130"/>
-      <c r="F105" s="130"/>
-      <c r="G105" s="130"/>
-      <c r="H105" s="133"/>
-      <c r="I105" s="130"/>
-      <c r="J105" s="130"/>
-      <c r="K105" s="131"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="132"/>
-      <c r="C106" s="130"/>
-      <c r="D106" s="130"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="130"/>
-      <c r="G106" s="130"/>
-      <c r="H106" s="133"/>
-      <c r="I106" s="130"/>
-      <c r="J106" s="130"/>
-      <c r="K106" s="131"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="132"/>
-      <c r="C107" s="130"/>
-      <c r="D107" s="130"/>
-      <c r="E107" s="130"/>
-      <c r="F107" s="130"/>
-      <c r="G107" s="130"/>
-      <c r="H107" s="133"/>
-      <c r="I107" s="130"/>
-      <c r="J107" s="130"/>
-      <c r="K107" s="131"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="132"/>
-      <c r="C108" s="130"/>
-      <c r="D108" s="130"/>
-      <c r="E108" s="130"/>
-      <c r="F108" s="130"/>
-      <c r="G108" s="130"/>
-      <c r="H108" s="133"/>
-      <c r="I108" s="130"/>
-      <c r="J108" s="130"/>
-      <c r="K108" s="131"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="132"/>
-      <c r="C109" s="130"/>
-      <c r="D109" s="130"/>
-      <c r="E109" s="130"/>
-      <c r="F109" s="130"/>
-      <c r="G109" s="130"/>
-      <c r="H109" s="133"/>
-      <c r="I109" s="130"/>
-      <c r="J109" s="130"/>
-      <c r="K109" s="131"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="132"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="130"/>
-      <c r="E110" s="130"/>
-      <c r="F110" s="130"/>
-      <c r="G110" s="130"/>
-      <c r="H110" s="133"/>
-      <c r="I110" s="130"/>
-      <c r="J110" s="130"/>
-      <c r="K110" s="131"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="132"/>
-      <c r="C111" s="130"/>
-      <c r="D111" s="130"/>
-      <c r="E111" s="130"/>
-      <c r="F111" s="130"/>
-      <c r="G111" s="130"/>
-      <c r="H111" s="133"/>
-      <c r="I111" s="130"/>
-      <c r="J111" s="130"/>
-      <c r="K111" s="131"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="132"/>
-      <c r="C112" s="130"/>
-      <c r="D112" s="130"/>
-      <c r="E112" s="130"/>
-      <c r="F112" s="130"/>
-      <c r="G112" s="130"/>
-      <c r="H112" s="133"/>
-      <c r="I112" s="130"/>
-      <c r="J112" s="130"/>
-      <c r="K112" s="131"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="132"/>
-      <c r="C113" s="130"/>
-      <c r="D113" s="130"/>
-      <c r="E113" s="130"/>
-      <c r="F113" s="130"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="133"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="131"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="132"/>
-      <c r="C114" s="130"/>
-      <c r="D114" s="130"/>
-      <c r="E114" s="130"/>
-      <c r="F114" s="130"/>
-      <c r="G114" s="130"/>
-      <c r="H114" s="133"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
-      <c r="K114" s="131"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="132"/>
-      <c r="C115" s="130"/>
-      <c r="D115" s="130"/>
-      <c r="E115" s="130"/>
-      <c r="F115" s="130"/>
-      <c r="G115" s="130"/>
-      <c r="H115" s="133"/>
-      <c r="I115" s="130"/>
-      <c r="J115" s="130"/>
-      <c r="K115" s="131"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="132"/>
-      <c r="C116" s="130"/>
-      <c r="D116" s="130"/>
-      <c r="E116" s="130"/>
-      <c r="F116" s="130"/>
-      <c r="G116" s="130"/>
-      <c r="H116" s="133"/>
-      <c r="I116" s="130"/>
-      <c r="J116" s="130"/>
-      <c r="K116" s="131"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="132"/>
-      <c r="C117" s="130"/>
-      <c r="D117" s="130"/>
-      <c r="E117" s="130"/>
-      <c r="F117" s="130"/>
-      <c r="G117" s="130"/>
-      <c r="H117" s="133"/>
-      <c r="I117" s="130"/>
-      <c r="J117" s="130"/>
-      <c r="K117" s="131"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="132"/>
-      <c r="C118" s="130"/>
-      <c r="D118" s="130"/>
-      <c r="E118" s="130"/>
-      <c r="F118" s="130"/>
-      <c r="G118" s="130"/>
-      <c r="H118" s="133"/>
-      <c r="I118" s="130"/>
-      <c r="J118" s="130"/>
-      <c r="K118" s="131"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="132"/>
-      <c r="C119" s="130"/>
-      <c r="D119" s="130"/>
-      <c r="E119" s="130"/>
-      <c r="F119" s="130"/>
-      <c r="G119" s="130"/>
-      <c r="H119" s="133"/>
-      <c r="I119" s="130"/>
-      <c r="J119" s="130"/>
-      <c r="K119" s="131"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="132"/>
-      <c r="C120" s="130"/>
-      <c r="D120" s="130"/>
-      <c r="E120" s="130"/>
-      <c r="F120" s="130"/>
-      <c r="G120" s="130"/>
-      <c r="H120" s="133"/>
-      <c r="I120" s="130"/>
-      <c r="J120" s="130"/>
-      <c r="K120" s="131"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="132"/>
-      <c r="C121" s="130"/>
-      <c r="D121" s="130"/>
-      <c r="E121" s="130"/>
-      <c r="F121" s="130"/>
-      <c r="G121" s="130"/>
-      <c r="H121" s="133"/>
-      <c r="I121" s="130"/>
-      <c r="J121" s="130"/>
-      <c r="K121" s="131"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="132"/>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="130"/>
-      <c r="F122" s="130"/>
-      <c r="G122" s="130"/>
-      <c r="H122" s="133"/>
-      <c r="I122" s="130"/>
-      <c r="J122" s="130"/>
-      <c r="K122" s="131"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="132"/>
-      <c r="C123" s="130"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="130"/>
-      <c r="F123" s="130"/>
-      <c r="G123" s="130"/>
-      <c r="H123" s="133"/>
-      <c r="I123" s="130"/>
-      <c r="J123" s="130"/>
-      <c r="K123" s="131"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="132"/>
-      <c r="C124" s="130"/>
-      <c r="D124" s="130"/>
-      <c r="E124" s="130"/>
-      <c r="F124" s="130"/>
-      <c r="G124" s="130"/>
-      <c r="H124" s="133"/>
-      <c r="I124" s="130"/>
-      <c r="J124" s="130"/>
-      <c r="K124" s="131"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="132"/>
-      <c r="C125" s="130"/>
-      <c r="D125" s="130"/>
-      <c r="E125" s="130"/>
-      <c r="F125" s="130"/>
-      <c r="G125" s="130"/>
-      <c r="H125" s="133"/>
-      <c r="I125" s="130"/>
-      <c r="J125" s="130"/>
-      <c r="K125" s="131"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="132"/>
-      <c r="C126" s="130"/>
-      <c r="D126" s="130"/>
-      <c r="E126" s="130"/>
-      <c r="F126" s="130"/>
-      <c r="G126" s="130"/>
-      <c r="H126" s="133"/>
-      <c r="I126" s="130"/>
-      <c r="J126" s="130"/>
-      <c r="K126" s="131"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="132"/>
-      <c r="C127" s="130"/>
-      <c r="D127" s="130"/>
-      <c r="E127" s="130"/>
-      <c r="F127" s="130"/>
-      <c r="G127" s="130"/>
-      <c r="H127" s="133"/>
-      <c r="I127" s="130"/>
-      <c r="J127" s="130"/>
-      <c r="K127" s="131"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="132"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="130"/>
-      <c r="E128" s="130"/>
-      <c r="F128" s="130"/>
-      <c r="G128" s="130"/>
-      <c r="H128" s="133"/>
-      <c r="I128" s="130"/>
-      <c r="J128" s="130"/>
-      <c r="K128" s="131"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="132"/>
-      <c r="C129" s="130"/>
-      <c r="D129" s="130"/>
-      <c r="E129" s="130"/>
-      <c r="F129" s="130"/>
-      <c r="G129" s="130"/>
-      <c r="H129" s="133"/>
-      <c r="I129" s="130"/>
-      <c r="J129" s="130"/>
-      <c r="K129" s="131"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="132"/>
-      <c r="C130" s="130"/>
-      <c r="D130" s="130"/>
-      <c r="E130" s="130"/>
-      <c r="F130" s="130"/>
-      <c r="G130" s="130"/>
-      <c r="H130" s="133"/>
-      <c r="I130" s="130"/>
-      <c r="J130" s="130"/>
-      <c r="K130" s="131"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="132"/>
-      <c r="C131" s="130"/>
-      <c r="D131" s="130"/>
-      <c r="E131" s="130"/>
-      <c r="F131" s="130"/>
-      <c r="G131" s="130"/>
-      <c r="H131" s="133"/>
-      <c r="I131" s="130"/>
-      <c r="J131" s="130"/>
-      <c r="K131" s="131"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="132"/>
-      <c r="C132" s="130"/>
-      <c r="D132" s="130"/>
-      <c r="E132" s="130"/>
-      <c r="F132" s="130"/>
-      <c r="G132" s="130"/>
-      <c r="H132" s="133"/>
-      <c r="I132" s="130"/>
-      <c r="J132" s="130"/>
-      <c r="K132" s="131"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="132"/>
-      <c r="C133" s="130"/>
-      <c r="D133" s="130"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="133"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
-      <c r="K133" s="131"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="132"/>
-      <c r="C134" s="130"/>
-      <c r="D134" s="130"/>
-      <c r="E134" s="130"/>
-      <c r="F134" s="130"/>
-      <c r="G134" s="130"/>
-      <c r="H134" s="133"/>
-      <c r="I134" s="130"/>
-      <c r="J134" s="130"/>
-      <c r="K134" s="131"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="132"/>
-      <c r="C135" s="130"/>
-      <c r="D135" s="130"/>
-      <c r="E135" s="130"/>
-      <c r="F135" s="130"/>
-      <c r="G135" s="130"/>
-      <c r="H135" s="133"/>
-      <c r="I135" s="130"/>
-      <c r="J135" s="130"/>
-      <c r="K135" s="131"/>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" s="132"/>
-      <c r="C136" s="130"/>
-      <c r="D136" s="130"/>
-      <c r="E136" s="130"/>
-      <c r="F136" s="130"/>
-      <c r="G136" s="130"/>
-      <c r="H136" s="133"/>
-      <c r="I136" s="130"/>
-      <c r="J136" s="130"/>
-      <c r="K136" s="131"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" s="132"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="130"/>
-      <c r="E137" s="130"/>
-      <c r="F137" s="130"/>
-      <c r="G137" s="130"/>
-      <c r="H137" s="133"/>
-      <c r="I137" s="130"/>
-      <c r="J137" s="130"/>
-      <c r="K137" s="131"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" s="132"/>
-      <c r="C138" s="130"/>
-      <c r="D138" s="130"/>
-      <c r="E138" s="130"/>
-      <c r="F138" s="130"/>
-      <c r="G138" s="130"/>
-      <c r="H138" s="133"/>
-      <c r="I138" s="130"/>
-      <c r="J138" s="130"/>
-      <c r="K138" s="131"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="132"/>
-      <c r="C139" s="130"/>
-      <c r="D139" s="130"/>
-      <c r="E139" s="130"/>
-      <c r="F139" s="130"/>
-      <c r="G139" s="130"/>
-      <c r="H139" s="133"/>
-      <c r="I139" s="130"/>
-      <c r="J139" s="130"/>
-      <c r="K139" s="131"/>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B140" s="132"/>
-      <c r="C140" s="130"/>
-      <c r="D140" s="130"/>
-      <c r="E140" s="130"/>
-      <c r="F140" s="130"/>
-      <c r="G140" s="130"/>
-      <c r="H140" s="133"/>
-      <c r="I140" s="130"/>
-      <c r="J140" s="130"/>
-      <c r="K140" s="131"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B141" s="132"/>
-      <c r="C141" s="130"/>
-      <c r="D141" s="130"/>
-      <c r="E141" s="130"/>
-      <c r="F141" s="130"/>
-      <c r="G141" s="130"/>
-      <c r="H141" s="133"/>
-      <c r="I141" s="130"/>
-      <c r="J141" s="130"/>
-      <c r="K141" s="131"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B142" s="132"/>
-      <c r="C142" s="130"/>
-      <c r="D142" s="130"/>
-      <c r="E142" s="130"/>
-      <c r="F142" s="130"/>
-      <c r="G142" s="130"/>
-      <c r="H142" s="133"/>
-      <c r="I142" s="130"/>
-      <c r="J142" s="130"/>
-      <c r="K142" s="131"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B143" s="132"/>
-      <c r="C143" s="130"/>
-      <c r="D143" s="130"/>
-      <c r="E143" s="130"/>
-      <c r="F143" s="130"/>
-      <c r="G143" s="130"/>
-      <c r="H143" s="133"/>
-      <c r="I143" s="130"/>
-      <c r="J143" s="130"/>
-      <c r="K143" s="131"/>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B144" s="132"/>
-      <c r="C144" s="130"/>
-      <c r="D144" s="130"/>
-      <c r="E144" s="130"/>
-      <c r="F144" s="130"/>
-      <c r="G144" s="130"/>
-      <c r="H144" s="133"/>
-      <c r="I144" s="130"/>
-      <c r="J144" s="130"/>
-      <c r="K144" s="131"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B145" s="132"/>
-      <c r="C145" s="130"/>
-      <c r="D145" s="130"/>
-      <c r="E145" s="130"/>
-      <c r="F145" s="130"/>
-      <c r="G145" s="130"/>
-      <c r="H145" s="133"/>
-      <c r="I145" s="130"/>
-      <c r="J145" s="130"/>
-      <c r="K145" s="131"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="132"/>
-      <c r="C146" s="130"/>
-      <c r="D146" s="130"/>
-      <c r="E146" s="130"/>
-      <c r="F146" s="130"/>
-      <c r="G146" s="130"/>
-      <c r="H146" s="133"/>
-      <c r="I146" s="130"/>
-      <c r="J146" s="130"/>
-      <c r="K146" s="131"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B147" s="132"/>
-      <c r="C147" s="130"/>
-      <c r="D147" s="130"/>
-      <c r="E147" s="130"/>
-      <c r="F147" s="130"/>
-      <c r="G147" s="130"/>
-      <c r="H147" s="133"/>
-      <c r="I147" s="130"/>
-      <c r="J147" s="130"/>
-      <c r="K147" s="131"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B148" s="132"/>
-      <c r="C148" s="130"/>
-      <c r="D148" s="130"/>
-      <c r="E148" s="130"/>
-      <c r="F148" s="130"/>
-      <c r="G148" s="130"/>
-      <c r="H148" s="133"/>
-      <c r="I148" s="130"/>
-      <c r="J148" s="130"/>
-      <c r="K148" s="131"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B149" s="132"/>
-      <c r="C149" s="130"/>
-      <c r="D149" s="130"/>
-      <c r="E149" s="130"/>
-      <c r="F149" s="130"/>
-      <c r="G149" s="130"/>
-      <c r="H149" s="133"/>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130"/>
-      <c r="K149" s="131"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B150" s="132"/>
-      <c r="C150" s="130"/>
-      <c r="D150" s="130"/>
-      <c r="E150" s="130"/>
-      <c r="F150" s="130"/>
-      <c r="G150" s="130"/>
-      <c r="H150" s="133"/>
-      <c r="I150" s="130"/>
-      <c r="J150" s="130"/>
-      <c r="K150" s="131"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B151" s="132"/>
-      <c r="C151" s="130"/>
-      <c r="D151" s="130"/>
-      <c r="E151" s="130"/>
-      <c r="F151" s="130"/>
-      <c r="G151" s="130"/>
-      <c r="H151" s="133"/>
-      <c r="I151" s="130"/>
-      <c r="J151" s="130"/>
-      <c r="K151" s="131"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B152" s="132"/>
-      <c r="C152" s="130"/>
-      <c r="D152" s="130"/>
-      <c r="E152" s="130"/>
-      <c r="F152" s="130"/>
-      <c r="G152" s="130"/>
-      <c r="H152" s="133"/>
-      <c r="I152" s="130"/>
-      <c r="J152" s="130"/>
-      <c r="K152" s="131"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B153" s="132"/>
-      <c r="C153" s="130"/>
-      <c r="D153" s="130"/>
-      <c r="E153" s="130"/>
-      <c r="F153" s="130"/>
-      <c r="G153" s="130"/>
-      <c r="H153" s="133"/>
-      <c r="I153" s="130"/>
-      <c r="J153" s="130"/>
-      <c r="K153" s="131"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B154" s="132"/>
-      <c r="C154" s="130"/>
-      <c r="D154" s="130"/>
-      <c r="E154" s="130"/>
-      <c r="F154" s="130"/>
-      <c r="G154" s="130"/>
-      <c r="H154" s="133"/>
-      <c r="I154" s="130"/>
-      <c r="J154" s="130"/>
-      <c r="K154" s="131"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B155" s="132"/>
-      <c r="C155" s="130"/>
-      <c r="D155" s="130"/>
-      <c r="E155" s="130"/>
-      <c r="F155" s="130"/>
-      <c r="G155" s="130"/>
-      <c r="H155" s="133"/>
-      <c r="I155" s="130"/>
-      <c r="J155" s="130"/>
-      <c r="K155" s="131"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B156" s="132"/>
-      <c r="C156" s="130"/>
-      <c r="D156" s="130"/>
-      <c r="E156" s="130"/>
-      <c r="F156" s="130"/>
-      <c r="G156" s="130"/>
-      <c r="H156" s="133"/>
-      <c r="I156" s="130"/>
-      <c r="J156" s="130"/>
-      <c r="K156" s="131"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B157" s="132"/>
-      <c r="C157" s="130"/>
-      <c r="D157" s="130"/>
-      <c r="E157" s="130"/>
-      <c r="F157" s="130"/>
-      <c r="G157" s="130"/>
-      <c r="H157" s="133"/>
-      <c r="I157" s="130"/>
-      <c r="J157" s="130"/>
-      <c r="K157" s="131"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B158" s="132"/>
-      <c r="C158" s="130"/>
-      <c r="D158" s="130"/>
-      <c r="E158" s="130"/>
-      <c r="F158" s="130"/>
-      <c r="G158" s="130"/>
-      <c r="H158" s="133"/>
-      <c r="I158" s="130"/>
-      <c r="J158" s="130"/>
-      <c r="K158" s="131"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B159" s="132"/>
-      <c r="C159" s="130"/>
-      <c r="D159" s="130"/>
-      <c r="E159" s="130"/>
-      <c r="F159" s="130"/>
-      <c r="G159" s="130"/>
-      <c r="H159" s="133"/>
-      <c r="I159" s="130"/>
-      <c r="J159" s="130"/>
-      <c r="K159" s="131"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B160" s="132"/>
-      <c r="C160" s="130"/>
-      <c r="D160" s="130"/>
-      <c r="E160" s="130"/>
-      <c r="F160" s="130"/>
-      <c r="G160" s="130"/>
-      <c r="H160" s="133"/>
-      <c r="I160" s="130"/>
-      <c r="J160" s="130"/>
-      <c r="K160" s="131"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B161" s="132"/>
-      <c r="C161" s="130"/>
-      <c r="D161" s="130"/>
-      <c r="E161" s="130"/>
-      <c r="F161" s="130"/>
-      <c r="G161" s="130"/>
-      <c r="H161" s="133"/>
-      <c r="I161" s="130"/>
-      <c r="J161" s="130"/>
-      <c r="K161" s="131"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B162" s="132"/>
-      <c r="C162" s="130"/>
-      <c r="D162" s="130"/>
-      <c r="E162" s="130"/>
-      <c r="F162" s="130"/>
-      <c r="G162" s="130"/>
-      <c r="H162" s="133"/>
-      <c r="I162" s="130"/>
-      <c r="J162" s="130"/>
-      <c r="K162" s="131"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B163" s="132"/>
-      <c r="C163" s="130"/>
-      <c r="D163" s="130"/>
-      <c r="E163" s="130"/>
-      <c r="F163" s="130"/>
-      <c r="G163" s="130"/>
-      <c r="H163" s="133"/>
-      <c r="I163" s="130"/>
-      <c r="J163" s="130"/>
-      <c r="K163" s="131"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B164" s="132"/>
-      <c r="C164" s="130"/>
-      <c r="D164" s="130"/>
-      <c r="E164" s="130"/>
-      <c r="F164" s="130"/>
-      <c r="G164" s="130"/>
-      <c r="H164" s="133"/>
-      <c r="I164" s="130"/>
-      <c r="J164" s="130"/>
-      <c r="K164" s="131"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B165" s="132"/>
-      <c r="C165" s="130"/>
-      <c r="D165" s="130"/>
-      <c r="E165" s="130"/>
-      <c r="F165" s="130"/>
-      <c r="G165" s="130"/>
-      <c r="H165" s="133"/>
-      <c r="I165" s="130"/>
-      <c r="J165" s="130"/>
-      <c r="K165" s="131"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B166" s="132"/>
-      <c r="C166" s="130"/>
-      <c r="D166" s="130"/>
-      <c r="E166" s="130"/>
-      <c r="F166" s="130"/>
-      <c r="G166" s="130"/>
-      <c r="H166" s="133"/>
-      <c r="I166" s="130"/>
-      <c r="J166" s="130"/>
-      <c r="K166" s="131"/>
+      <c r="F84" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="129"/>
+      <c r="H84" s="132"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
+      <c r="K84" s="130"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="131"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="129"/>
+      <c r="E85" s="129"/>
+      <c r="F85" s="129"/>
+      <c r="G85" s="129"/>
+      <c r="H85" s="132"/>
+      <c r="I85" s="129"/>
+      <c r="J85" s="129"/>
+      <c r="K85" s="130"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="131"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="129"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="129"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="129"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="130"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="131"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="129"/>
+      <c r="E87" s="129"/>
+      <c r="F87" s="129"/>
+      <c r="G87" s="129"/>
+      <c r="H87" s="132"/>
+      <c r="I87" s="129"/>
+      <c r="J87" s="129"/>
+      <c r="K87" s="130"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="131"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+      <c r="G88" s="129"/>
+      <c r="H88" s="132"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
+      <c r="K88" s="130"/>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="131"/>
+      <c r="C89" s="129"/>
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="132"/>
+      <c r="I89" s="129"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="130"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="131"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
+      <c r="E90" s="129"/>
+      <c r="F90" s="129"/>
+      <c r="G90" s="129"/>
+      <c r="H90" s="132"/>
+      <c r="I90" s="129"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="130"/>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="131"/>
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
+      <c r="G91" s="129"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="129"/>
+      <c r="J91" s="129"/>
+      <c r="K91" s="130"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="131"/>
+      <c r="C92" s="129"/>
+      <c r="D92" s="129"/>
+      <c r="E92" s="129"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="129"/>
+      <c r="H92" s="132"/>
+      <c r="I92" s="129"/>
+      <c r="J92" s="129"/>
+      <c r="K92" s="130"/>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="131"/>
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="129"/>
+      <c r="J93" s="129"/>
+      <c r="K93" s="130"/>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="131"/>
+      <c r="C94" s="129"/>
+      <c r="D94" s="129"/>
+      <c r="E94" s="129"/>
+      <c r="F94" s="129"/>
+      <c r="G94" s="129"/>
+      <c r="H94" s="132"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="130"/>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="131"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="130"/>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="131"/>
+      <c r="C96" s="129"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="129"/>
+      <c r="G96" s="129"/>
+      <c r="H96" s="132"/>
+      <c r="I96" s="129"/>
+      <c r="J96" s="129"/>
+      <c r="K96" s="130"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="131"/>
+      <c r="C97" s="129"/>
+      <c r="D97" s="129"/>
+      <c r="E97" s="129"/>
+      <c r="F97" s="129"/>
+      <c r="G97" s="129"/>
+      <c r="H97" s="132"/>
+      <c r="I97" s="129"/>
+      <c r="J97" s="129"/>
+      <c r="K97" s="130"/>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="131"/>
+      <c r="C98" s="129"/>
+      <c r="D98" s="129"/>
+      <c r="E98" s="129"/>
+      <c r="F98" s="129"/>
+      <c r="G98" s="129"/>
+      <c r="H98" s="132"/>
+      <c r="I98" s="129"/>
+      <c r="J98" s="129"/>
+      <c r="K98" s="130"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="131"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="129"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="132"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="130"/>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="131"/>
+      <c r="C100" s="129"/>
+      <c r="D100" s="129"/>
+      <c r="E100" s="129"/>
+      <c r="F100" s="129"/>
+      <c r="G100" s="129"/>
+      <c r="H100" s="132"/>
+      <c r="I100" s="129"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="130"/>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="131"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="132"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="130"/>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="131"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="129"/>
+      <c r="E102" s="129"/>
+      <c r="F102" s="129"/>
+      <c r="G102" s="129"/>
+      <c r="H102" s="132"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="130"/>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="131"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="129"/>
+      <c r="E103" s="129"/>
+      <c r="F103" s="129"/>
+      <c r="G103" s="129"/>
+      <c r="H103" s="132"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="130"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="131"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="129"/>
+      <c r="E104" s="129"/>
+      <c r="F104" s="129"/>
+      <c r="G104" s="129"/>
+      <c r="H104" s="132"/>
+      <c r="I104" s="129"/>
+      <c r="J104" s="129"/>
+      <c r="K104" s="130"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="131"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="129"/>
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="132"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
+      <c r="K105" s="130"/>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="131"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
+      <c r="F106" s="129"/>
+      <c r="G106" s="129"/>
+      <c r="H106" s="132"/>
+      <c r="I106" s="129"/>
+      <c r="J106" s="129"/>
+      <c r="K106" s="130"/>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="131"/>
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
+      <c r="E107" s="129"/>
+      <c r="F107" s="129"/>
+      <c r="G107" s="129"/>
+      <c r="H107" s="132"/>
+      <c r="I107" s="129"/>
+      <c r="J107" s="129"/>
+      <c r="K107" s="130"/>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="131"/>
+      <c r="C108" s="129"/>
+      <c r="D108" s="129"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="129"/>
+      <c r="G108" s="129"/>
+      <c r="H108" s="132"/>
+      <c r="I108" s="129"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="130"/>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="131"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="129"/>
+      <c r="G109" s="129"/>
+      <c r="H109" s="132"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="130"/>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="131"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="129"/>
+      <c r="G110" s="129"/>
+      <c r="H110" s="132"/>
+      <c r="I110" s="129"/>
+      <c r="J110" s="129"/>
+      <c r="K110" s="130"/>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="131"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="129"/>
+      <c r="E111" s="129"/>
+      <c r="F111" s="129"/>
+      <c r="G111" s="129"/>
+      <c r="H111" s="132"/>
+      <c r="I111" s="129"/>
+      <c r="J111" s="129"/>
+      <c r="K111" s="130"/>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="131"/>
+      <c r="C112" s="129"/>
+      <c r="D112" s="129"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="129"/>
+      <c r="G112" s="129"/>
+      <c r="H112" s="132"/>
+      <c r="I112" s="129"/>
+      <c r="J112" s="129"/>
+      <c r="K112" s="130"/>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="131"/>
+      <c r="C113" s="129"/>
+      <c r="D113" s="129"/>
+      <c r="E113" s="129"/>
+      <c r="F113" s="129"/>
+      <c r="G113" s="129"/>
+      <c r="H113" s="132"/>
+      <c r="I113" s="129"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="130"/>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="131"/>
+      <c r="C114" s="129"/>
+      <c r="D114" s="129"/>
+      <c r="E114" s="129"/>
+      <c r="F114" s="129"/>
+      <c r="G114" s="129"/>
+      <c r="H114" s="132"/>
+      <c r="I114" s="129"/>
+      <c r="J114" s="129"/>
+      <c r="K114" s="130"/>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="131"/>
+      <c r="C115" s="129"/>
+      <c r="D115" s="129"/>
+      <c r="E115" s="129"/>
+      <c r="F115" s="129"/>
+      <c r="G115" s="129"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="129"/>
+      <c r="J115" s="129"/>
+      <c r="K115" s="130"/>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="131"/>
+      <c r="C116" s="129"/>
+      <c r="D116" s="129"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="129"/>
+      <c r="G116" s="129"/>
+      <c r="H116" s="132"/>
+      <c r="I116" s="129"/>
+      <c r="J116" s="129"/>
+      <c r="K116" s="130"/>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="131"/>
+      <c r="C117" s="129"/>
+      <c r="D117" s="129"/>
+      <c r="E117" s="129"/>
+      <c r="F117" s="129"/>
+      <c r="G117" s="129"/>
+      <c r="H117" s="132"/>
+      <c r="I117" s="129"/>
+      <c r="J117" s="129"/>
+      <c r="K117" s="130"/>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="131"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="129"/>
+      <c r="G118" s="129"/>
+      <c r="H118" s="132"/>
+      <c r="I118" s="129"/>
+      <c r="J118" s="129"/>
+      <c r="K118" s="130"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="131"/>
+      <c r="C119" s="129"/>
+      <c r="D119" s="129"/>
+      <c r="E119" s="129"/>
+      <c r="F119" s="129"/>
+      <c r="G119" s="129"/>
+      <c r="H119" s="132"/>
+      <c r="I119" s="129"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="130"/>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="131"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="129"/>
+      <c r="E120" s="129"/>
+      <c r="F120" s="129"/>
+      <c r="G120" s="129"/>
+      <c r="H120" s="132"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="130"/>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="131"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="129"/>
+      <c r="F121" s="129"/>
+      <c r="G121" s="129"/>
+      <c r="H121" s="132"/>
+      <c r="I121" s="129"/>
+      <c r="J121" s="129"/>
+      <c r="K121" s="130"/>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="131"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
+      <c r="E122" s="129"/>
+      <c r="F122" s="129"/>
+      <c r="G122" s="129"/>
+      <c r="H122" s="132"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="130"/>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="131"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="129"/>
+      <c r="G123" s="129"/>
+      <c r="H123" s="132"/>
+      <c r="I123" s="129"/>
+      <c r="J123" s="129"/>
+      <c r="K123" s="130"/>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="131"/>
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
+      <c r="E124" s="129"/>
+      <c r="F124" s="129"/>
+      <c r="G124" s="129"/>
+      <c r="H124" s="132"/>
+      <c r="I124" s="129"/>
+      <c r="J124" s="129"/>
+      <c r="K124" s="130"/>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="131"/>
+      <c r="C125" s="129"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="129"/>
+      <c r="H125" s="132"/>
+      <c r="I125" s="129"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="130"/>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="131"/>
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="129"/>
+      <c r="H126" s="132"/>
+      <c r="I126" s="129"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="130"/>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="131"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="132"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="130"/>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="131"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="129"/>
+      <c r="F128" s="129"/>
+      <c r="G128" s="129"/>
+      <c r="H128" s="132"/>
+      <c r="I128" s="129"/>
+      <c r="J128" s="129"/>
+      <c r="K128" s="130"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="131"/>
+      <c r="C129" s="129"/>
+      <c r="D129" s="129"/>
+      <c r="E129" s="129"/>
+      <c r="F129" s="129"/>
+      <c r="G129" s="129"/>
+      <c r="H129" s="132"/>
+      <c r="I129" s="129"/>
+      <c r="J129" s="129"/>
+      <c r="K129" s="130"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="131"/>
+      <c r="C130" s="129"/>
+      <c r="D130" s="129"/>
+      <c r="E130" s="129"/>
+      <c r="F130" s="129"/>
+      <c r="G130" s="129"/>
+      <c r="H130" s="132"/>
+      <c r="I130" s="129"/>
+      <c r="J130" s="129"/>
+      <c r="K130" s="130"/>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="131"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="129"/>
+      <c r="E131" s="129"/>
+      <c r="F131" s="129"/>
+      <c r="G131" s="129"/>
+      <c r="H131" s="132"/>
+      <c r="I131" s="129"/>
+      <c r="J131" s="129"/>
+      <c r="K131" s="130"/>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="131"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="129"/>
+      <c r="F132" s="129"/>
+      <c r="G132" s="129"/>
+      <c r="H132" s="132"/>
+      <c r="I132" s="129"/>
+      <c r="J132" s="129"/>
+      <c r="K132" s="130"/>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="131"/>
+      <c r="C133" s="129"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="129"/>
+      <c r="F133" s="129"/>
+      <c r="G133" s="129"/>
+      <c r="H133" s="132"/>
+      <c r="I133" s="129"/>
+      <c r="J133" s="129"/>
+      <c r="K133" s="130"/>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="131"/>
+      <c r="C134" s="129"/>
+      <c r="D134" s="129"/>
+      <c r="E134" s="129"/>
+      <c r="F134" s="129"/>
+      <c r="G134" s="129"/>
+      <c r="H134" s="132"/>
+      <c r="I134" s="129"/>
+      <c r="J134" s="129"/>
+      <c r="K134" s="130"/>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="131"/>
+      <c r="C135" s="129"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="129"/>
+      <c r="G135" s="129"/>
+      <c r="H135" s="132"/>
+      <c r="I135" s="129"/>
+      <c r="J135" s="129"/>
+      <c r="K135" s="130"/>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="131"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="129"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="129"/>
+      <c r="G136" s="129"/>
+      <c r="H136" s="132"/>
+      <c r="I136" s="129"/>
+      <c r="J136" s="129"/>
+      <c r="K136" s="130"/>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="131"/>
+      <c r="C137" s="129"/>
+      <c r="D137" s="129"/>
+      <c r="E137" s="129"/>
+      <c r="F137" s="129"/>
+      <c r="G137" s="129"/>
+      <c r="H137" s="132"/>
+      <c r="I137" s="129"/>
+      <c r="J137" s="129"/>
+      <c r="K137" s="130"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="131"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="129"/>
+      <c r="E138" s="129"/>
+      <c r="F138" s="129"/>
+      <c r="G138" s="129"/>
+      <c r="H138" s="132"/>
+      <c r="I138" s="129"/>
+      <c r="J138" s="129"/>
+      <c r="K138" s="130"/>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="131"/>
+      <c r="C139" s="129"/>
+      <c r="D139" s="129"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="129"/>
+      <c r="G139" s="129"/>
+      <c r="H139" s="132"/>
+      <c r="I139" s="129"/>
+      <c r="J139" s="129"/>
+      <c r="K139" s="130"/>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="131"/>
+      <c r="C140" s="129"/>
+      <c r="D140" s="129"/>
+      <c r="E140" s="129"/>
+      <c r="F140" s="129"/>
+      <c r="G140" s="129"/>
+      <c r="H140" s="132"/>
+      <c r="I140" s="129"/>
+      <c r="J140" s="129"/>
+      <c r="K140" s="130"/>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="131"/>
+      <c r="C141" s="129"/>
+      <c r="D141" s="129"/>
+      <c r="E141" s="129"/>
+      <c r="F141" s="129"/>
+      <c r="G141" s="129"/>
+      <c r="H141" s="132"/>
+      <c r="I141" s="129"/>
+      <c r="J141" s="129"/>
+      <c r="K141" s="130"/>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="131"/>
+      <c r="C142" s="129"/>
+      <c r="D142" s="129"/>
+      <c r="E142" s="129"/>
+      <c r="F142" s="129"/>
+      <c r="G142" s="129"/>
+      <c r="H142" s="132"/>
+      <c r="I142" s="129"/>
+      <c r="J142" s="129"/>
+      <c r="K142" s="130"/>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="131"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="129"/>
+      <c r="E143" s="129"/>
+      <c r="F143" s="129"/>
+      <c r="G143" s="129"/>
+      <c r="H143" s="132"/>
+      <c r="I143" s="129"/>
+      <c r="J143" s="129"/>
+      <c r="K143" s="130"/>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="131"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="129"/>
+      <c r="E144" s="129"/>
+      <c r="F144" s="129"/>
+      <c r="G144" s="129"/>
+      <c r="H144" s="132"/>
+      <c r="I144" s="129"/>
+      <c r="J144" s="129"/>
+      <c r="K144" s="130"/>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="131"/>
+      <c r="C145" s="129"/>
+      <c r="D145" s="129"/>
+      <c r="E145" s="129"/>
+      <c r="F145" s="129"/>
+      <c r="G145" s="129"/>
+      <c r="H145" s="132"/>
+      <c r="I145" s="129"/>
+      <c r="J145" s="129"/>
+      <c r="K145" s="130"/>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="131"/>
+      <c r="C146" s="129"/>
+      <c r="D146" s="129"/>
+      <c r="E146" s="129"/>
+      <c r="F146" s="129"/>
+      <c r="G146" s="129"/>
+      <c r="H146" s="132"/>
+      <c r="I146" s="129"/>
+      <c r="J146" s="129"/>
+      <c r="K146" s="130"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="131"/>
+      <c r="C147" s="129"/>
+      <c r="D147" s="129"/>
+      <c r="E147" s="129"/>
+      <c r="F147" s="129"/>
+      <c r="G147" s="129"/>
+      <c r="H147" s="132"/>
+      <c r="I147" s="129"/>
+      <c r="J147" s="129"/>
+      <c r="K147" s="130"/>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="131"/>
+      <c r="C148" s="129"/>
+      <c r="D148" s="129"/>
+      <c r="E148" s="129"/>
+      <c r="F148" s="129"/>
+      <c r="G148" s="129"/>
+      <c r="H148" s="132"/>
+      <c r="I148" s="129"/>
+      <c r="J148" s="129"/>
+      <c r="K148" s="130"/>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="131"/>
+      <c r="C149" s="129"/>
+      <c r="D149" s="129"/>
+      <c r="E149" s="129"/>
+      <c r="F149" s="129"/>
+      <c r="G149" s="129"/>
+      <c r="H149" s="132"/>
+      <c r="I149" s="129"/>
+      <c r="J149" s="129"/>
+      <c r="K149" s="130"/>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="131"/>
+      <c r="C150" s="129"/>
+      <c r="D150" s="129"/>
+      <c r="E150" s="129"/>
+      <c r="F150" s="129"/>
+      <c r="G150" s="129"/>
+      <c r="H150" s="132"/>
+      <c r="I150" s="129"/>
+      <c r="J150" s="129"/>
+      <c r="K150" s="130"/>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="131"/>
+      <c r="C151" s="129"/>
+      <c r="D151" s="129"/>
+      <c r="E151" s="129"/>
+      <c r="F151" s="129"/>
+      <c r="G151" s="129"/>
+      <c r="H151" s="132"/>
+      <c r="I151" s="129"/>
+      <c r="J151" s="129"/>
+      <c r="K151" s="130"/>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="131"/>
+      <c r="C152" s="129"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="129"/>
+      <c r="F152" s="129"/>
+      <c r="G152" s="129"/>
+      <c r="H152" s="132"/>
+      <c r="I152" s="129"/>
+      <c r="J152" s="129"/>
+      <c r="K152" s="130"/>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="131"/>
+      <c r="C153" s="129"/>
+      <c r="D153" s="129"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="129"/>
+      <c r="G153" s="129"/>
+      <c r="H153" s="132"/>
+      <c r="I153" s="129"/>
+      <c r="J153" s="129"/>
+      <c r="K153" s="130"/>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="131"/>
+      <c r="C154" s="129"/>
+      <c r="D154" s="129"/>
+      <c r="E154" s="129"/>
+      <c r="F154" s="129"/>
+      <c r="G154" s="129"/>
+      <c r="H154" s="132"/>
+      <c r="I154" s="129"/>
+      <c r="J154" s="129"/>
+      <c r="K154" s="130"/>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="131"/>
+      <c r="C155" s="129"/>
+      <c r="D155" s="129"/>
+      <c r="E155" s="129"/>
+      <c r="F155" s="129"/>
+      <c r="G155" s="129"/>
+      <c r="H155" s="132"/>
+      <c r="I155" s="129"/>
+      <c r="J155" s="129"/>
+      <c r="K155" s="130"/>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="131"/>
+      <c r="C156" s="129"/>
+      <c r="D156" s="129"/>
+      <c r="E156" s="129"/>
+      <c r="F156" s="129"/>
+      <c r="G156" s="129"/>
+      <c r="H156" s="132"/>
+      <c r="I156" s="129"/>
+      <c r="J156" s="129"/>
+      <c r="K156" s="130"/>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="131"/>
+      <c r="C157" s="129"/>
+      <c r="D157" s="129"/>
+      <c r="E157" s="129"/>
+      <c r="F157" s="129"/>
+      <c r="G157" s="129"/>
+      <c r="H157" s="132"/>
+      <c r="I157" s="129"/>
+      <c r="J157" s="129"/>
+      <c r="K157" s="130"/>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="131"/>
+      <c r="C158" s="129"/>
+      <c r="D158" s="129"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="129"/>
+      <c r="G158" s="129"/>
+      <c r="H158" s="132"/>
+      <c r="I158" s="129"/>
+      <c r="J158" s="129"/>
+      <c r="K158" s="130"/>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="131"/>
+      <c r="C159" s="129"/>
+      <c r="D159" s="129"/>
+      <c r="E159" s="129"/>
+      <c r="F159" s="129"/>
+      <c r="G159" s="129"/>
+      <c r="H159" s="132"/>
+      <c r="I159" s="129"/>
+      <c r="J159" s="129"/>
+      <c r="K159" s="130"/>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="131"/>
+      <c r="C160" s="129"/>
+      <c r="D160" s="129"/>
+      <c r="E160" s="129"/>
+      <c r="F160" s="129"/>
+      <c r="G160" s="129"/>
+      <c r="H160" s="132"/>
+      <c r="I160" s="129"/>
+      <c r="J160" s="129"/>
+      <c r="K160" s="130"/>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="131"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="129"/>
+      <c r="E161" s="129"/>
+      <c r="F161" s="129"/>
+      <c r="G161" s="129"/>
+      <c r="H161" s="132"/>
+      <c r="I161" s="129"/>
+      <c r="J161" s="129"/>
+      <c r="K161" s="130"/>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="131"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="129"/>
+      <c r="G162" s="129"/>
+      <c r="H162" s="132"/>
+      <c r="I162" s="129"/>
+      <c r="J162" s="129"/>
+      <c r="K162" s="130"/>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="131"/>
+      <c r="C163" s="129"/>
+      <c r="D163" s="129"/>
+      <c r="E163" s="129"/>
+      <c r="F163" s="129"/>
+      <c r="G163" s="129"/>
+      <c r="H163" s="132"/>
+      <c r="I163" s="129"/>
+      <c r="J163" s="129"/>
+      <c r="K163" s="130"/>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="131"/>
+      <c r="C164" s="129"/>
+      <c r="D164" s="129"/>
+      <c r="E164" s="129"/>
+      <c r="F164" s="129"/>
+      <c r="G164" s="129"/>
+      <c r="H164" s="132"/>
+      <c r="I164" s="129"/>
+      <c r="J164" s="129"/>
+      <c r="K164" s="130"/>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="131"/>
+      <c r="C165" s="129"/>
+      <c r="D165" s="129"/>
+      <c r="E165" s="129"/>
+      <c r="F165" s="129"/>
+      <c r="G165" s="129"/>
+      <c r="H165" s="132"/>
+      <c r="I165" s="129"/>
+      <c r="J165" s="129"/>
+      <c r="K165" s="130"/>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="131"/>
+      <c r="C166" s="129"/>
+      <c r="D166" s="129"/>
+      <c r="E166" s="129"/>
+      <c r="F166" s="129"/>
+      <c r="G166" s="129"/>
+      <c r="H166" s="132"/>
+      <c r="I166" s="129"/>
+      <c r="J166" s="129"/>
+      <c r="K166" s="130"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_flexibility_p2p_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFE2695-441C-4F40-BEB8-020AA8525FA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF9BBA-BF38-6345-88FB-5C443E75E94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,10 +38,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -430,6 +436,15 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>Storage decay (% per hour)</t>
+  </si>
+  <si>
+    <t>% per hour</t>
   </si>
 </sst>
 </file>
@@ -567,6 +582,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +590,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,6 +598,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -588,6 +606,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,17 +614,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,6 +641,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1204,7 +1227,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,9 +1494,6 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1488,6 +1508,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,6 +1535,13 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="274">
@@ -1815,8 +1843,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3175000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -1860,7 +1888,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3249271</xdr:colOff>
+      <xdr:colOff>2665071</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2008,8 +2036,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3188426</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>726</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2734,7 +2762,7 @@
   <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1"/>
@@ -2743,7 +2771,7 @@
     <col min="2" max="2" width="3.6640625" style="83" customWidth="1"/>
     <col min="3" max="3" width="46" style="83" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="83" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="83" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="83" customWidth="1"/>
     <col min="7" max="7" width="45" style="83" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" style="83" customWidth="1"/>
@@ -2857,7 +2885,7 @@
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="109"/>
-      <c r="I10" s="145" t="s">
+      <c r="I10" s="144" t="s">
         <v>80</v>
       </c>
       <c r="J10" s="96"/>
@@ -2868,22 +2896,22 @@
         <v>78</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="144">
+        <v>124</v>
+      </c>
+      <c r="E11" s="164">
         <f>'Research data'!G7</f>
-        <v>5.4246575342465753E-8</v>
+        <v>4.1095890410958905E-5</v>
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="109"/>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>80</v>
       </c>
       <c r="J11" s="96"/>
     </row>
     <row r="12" spans="2:11" s="92" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="93"/>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="148" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="110" t="s">
@@ -2895,7 +2923,7 @@
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="109"/>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="144" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="96"/>
@@ -2912,7 +2940,7 @@
       </c>
       <c r="F13" s="108"/>
       <c r="G13" s="109"/>
-      <c r="I13" s="145" t="s">
+      <c r="I13" s="144" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="96"/>
@@ -2930,7 +2958,7 @@
       </c>
       <c r="F14" s="108"/>
       <c r="G14" s="108"/>
-      <c r="I14" s="145" t="s">
+      <c r="I14" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J14" s="98"/>
@@ -2949,7 +2977,7 @@
       </c>
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
-      <c r="I15" s="145" t="s">
+      <c r="I15" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="98"/>
@@ -2968,7 +2996,7 @@
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="108"/>
-      <c r="I16" s="145" t="s">
+      <c r="I16" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J16" s="98"/>
@@ -2987,7 +3015,7 @@
       </c>
       <c r="F17" s="108"/>
       <c r="G17" s="108"/>
-      <c r="I17" s="145" t="s">
+      <c r="I17" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J17" s="98"/>
@@ -3006,7 +3034,7 @@
       </c>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
-      <c r="I18" s="145" t="s">
+      <c r="I18" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J18" s="98"/>
@@ -3025,7 +3053,7 @@
       </c>
       <c r="F19" s="108"/>
       <c r="G19" s="108"/>
-      <c r="I19" s="145" t="s">
+      <c r="I19" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J19" s="98"/>
@@ -3044,7 +3072,7 @@
       </c>
       <c r="F20" s="108"/>
       <c r="G20" s="108"/>
-      <c r="I20" s="145" t="s">
+      <c r="I20" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J20" s="98"/>
@@ -3085,7 +3113,7 @@
       </c>
       <c r="F23" s="108"/>
       <c r="G23" s="108"/>
-      <c r="I23" s="145" t="s">
+      <c r="I23" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J23" s="98"/>
@@ -3103,7 +3131,7 @@
       </c>
       <c r="F24" s="108"/>
       <c r="G24" s="108"/>
-      <c r="I24" s="145" t="s">
+      <c r="I24" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J24" s="98"/>
@@ -3121,7 +3149,7 @@
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
-      <c r="I25" s="145" t="s">
+      <c r="I25" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J25" s="98"/>
@@ -3139,7 +3167,7 @@
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="108"/>
-      <c r="I26" s="145" t="s">
+      <c r="I26" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J26" s="98"/>
@@ -3157,7 +3185,7 @@
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="108"/>
-      <c r="I27" s="145" t="s">
+      <c r="I27" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J27" s="98"/>
@@ -3175,7 +3203,7 @@
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
-      <c r="I28" s="145" t="s">
+      <c r="I28" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J28" s="98"/>
@@ -3193,7 +3221,7 @@
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
-      <c r="I29" s="145" t="s">
+      <c r="I29" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J29" s="98"/>
@@ -3207,12 +3235,12 @@
         <v>2</v>
       </c>
       <c r="E30" s="107">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="108"/>
-      <c r="I30" s="145" t="s">
-        <v>111</v>
+      <c r="I30" s="152" t="s">
+        <v>122</v>
       </c>
       <c r="J30" s="98"/>
     </row>
@@ -3229,7 +3257,7 @@
       </c>
       <c r="F31" s="108"/>
       <c r="G31" s="108"/>
-      <c r="I31" s="145" t="s">
+      <c r="I31" s="144" t="s">
         <v>111</v>
       </c>
       <c r="J31" s="98"/>
@@ -3269,7 +3297,7 @@
       </c>
       <c r="F34" s="108"/>
       <c r="G34" s="108"/>
-      <c r="I34" s="146" t="s">
+      <c r="I34" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J34" s="98"/>
@@ -3287,7 +3315,7 @@
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
-      <c r="I35" s="146" t="s">
+      <c r="I35" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J35" s="98"/>
@@ -3305,7 +3333,7 @@
       </c>
       <c r="F36" s="108"/>
       <c r="G36" s="108"/>
-      <c r="I36" s="146" t="s">
+      <c r="I36" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J36" s="98"/>
@@ -3323,7 +3351,7 @@
       </c>
       <c r="F37" s="108"/>
       <c r="G37" s="108"/>
-      <c r="I37" s="146" t="s">
+      <c r="I37" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J37" s="98"/>
@@ -3339,7 +3367,7 @@
       </c>
       <c r="F38" s="108"/>
       <c r="G38" s="108"/>
-      <c r="I38" s="146" t="s">
+      <c r="I38" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J38" s="98"/>
@@ -3355,7 +3383,7 @@
       </c>
       <c r="F39" s="108"/>
       <c r="G39" s="108"/>
-      <c r="I39" s="146" t="s">
+      <c r="I39" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J39" s="98"/>
@@ -3371,7 +3399,7 @@
       </c>
       <c r="F40" s="108"/>
       <c r="G40" s="108"/>
-      <c r="I40" s="146" t="s">
+      <c r="I40" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J40" s="98"/>
@@ -3387,7 +3415,7 @@
       </c>
       <c r="F41" s="108"/>
       <c r="G41" s="108"/>
-      <c r="I41" s="146" t="s">
+      <c r="I41" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J41" s="98"/>
@@ -3403,7 +3431,7 @@
       </c>
       <c r="F42" s="108"/>
       <c r="G42" s="108"/>
-      <c r="I42" s="146" t="s">
+      <c r="I42" s="145" t="s">
         <v>111</v>
       </c>
       <c r="J42" s="98"/>
@@ -3436,7 +3464,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3446,7 +3474,7 @@
     <col min="4" max="4" width="16.5" style="38" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="38" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="38" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" customWidth="1"/>
     <col min="9" max="9" width="16" style="38" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
@@ -3547,12 +3575,12 @@
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="137" t="s">
-        <v>44</v>
+      <c r="F7" s="163" t="s">
+        <v>124</v>
       </c>
       <c r="G7" s="139">
-        <f>Notes!E84/1000000</f>
-        <v>5.4246575342465753E-8</v>
+        <f>Notes!E84</f>
+        <v>4.1095890410958905E-5</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
@@ -3817,8 +3845,8 @@
   </sheetPr>
   <dimension ref="B2:K166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3826,7 +3854,7 @@
     <col min="1" max="1" width="3.5" style="118" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" style="118" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="118" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="118" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="118" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="118" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="118"/>
     <col min="8" max="8" width="10.6640625" style="119"/>
@@ -4123,7 +4151,7 @@
       <c r="H23" s="128"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="152" t="s">
+      <c r="K23" s="151" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4320,7 +4348,7 @@
     <row r="39" spans="2:11">
       <c r="B39" s="15"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="148" t="s">
+      <c r="D39" s="147" t="s">
         <v>113</v>
       </c>
       <c r="F39" s="13"/>
@@ -4352,7 +4380,7 @@
     <row r="41" spans="2:11">
       <c r="B41" s="15"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="148" t="s">
+      <c r="D41" s="147" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="13"/>
@@ -4659,7 +4687,7 @@
     <row r="66" spans="2:11">
       <c r="B66" s="131"/>
       <c r="C66" s="129"/>
-      <c r="D66" s="151" t="s">
+      <c r="D66" s="150" t="s">
         <v>120</v>
       </c>
       <c r="E66" s="129">
@@ -4678,7 +4706,7 @@
     <row r="67" spans="2:11">
       <c r="B67" s="131"/>
       <c r="C67" s="129"/>
-      <c r="D67" s="151" t="s">
+      <c r="D67" s="150" t="s">
         <v>118</v>
       </c>
       <c r="E67" s="129">
@@ -4694,14 +4722,14 @@
     <row r="68" spans="2:11">
       <c r="B68" s="131"/>
       <c r="C68" s="129"/>
-      <c r="D68" s="151" t="s">
+      <c r="D68" s="150" t="s">
         <v>119</v>
       </c>
       <c r="E68" s="129">
         <f>E66*E67</f>
         <v>19800</v>
       </c>
-      <c r="F68" s="151" t="s">
+      <c r="F68" s="150" t="s">
         <v>87</v>
       </c>
       <c r="G68" s="129"/>
@@ -4753,7 +4781,7 @@
       <c r="H73" s="132"/>
       <c r="I73" s="129"/>
       <c r="J73" s="129"/>
-      <c r="K73" s="148" t="s">
+      <c r="K73" s="147" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4828,7 +4856,7 @@
       <c r="C80" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="D80" s="150" t="s">
+      <c r="D80" s="149" t="s">
         <v>117</v>
       </c>
       <c r="G80" s="129"/>
@@ -4847,7 +4875,7 @@
         <f>(1-0.64)*E66</f>
         <v>475.2</v>
       </c>
-      <c r="F81" s="147" t="s">
+      <c r="F81" s="146" t="s">
         <v>87</v>
       </c>
       <c r="G81" s="129"/>
@@ -4867,7 +4895,7 @@
       <c r="E82" s="129">
         <v>8760</v>
       </c>
-      <c r="F82" s="147" t="s">
+      <c r="F82" s="146" t="s">
         <v>99</v>
       </c>
       <c r="G82" s="129"/>
@@ -4891,15 +4919,15 @@
     <row r="84" spans="2:11">
       <c r="B84" s="131"/>
       <c r="C84" s="129"/>
-      <c r="D84" s="129" t="s">
-        <v>97</v>
+      <c r="D84" s="162" t="s">
+        <v>123</v>
       </c>
       <c r="E84" s="129">
-        <f>E81/E82</f>
-        <v>5.4246575342465755E-2</v>
-      </c>
-      <c r="F84" s="129" t="s">
-        <v>90</v>
+        <f>E81/E66/E82</f>
+        <v>4.1095890410958905E-5</v>
+      </c>
+      <c r="F84" s="162" t="s">
+        <v>2</v>
       </c>
       <c r="G84" s="129"/>
       <c r="H84" s="132"/>
@@ -4922,7 +4950,7 @@
     <row r="86" spans="2:11">
       <c r="B86" s="131"/>
       <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
+      <c r="D86" s="162"/>
       <c r="E86" s="129"/>
       <c r="F86" s="129"/>
       <c r="G86" s="129"/>
